--- a/BigData/BD_lb1/q3/out.xlsx
+++ b/BigData/BD_lb1/q3/out.xlsx
@@ -152,10 +152,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1118,16 +1118,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:rowOff>45244</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>11906</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:rowOff>121444</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1415,7 +1415,7 @@
   <dimension ref="A1:AC84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="H2" sqref="H2:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,10 +1441,10 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I1" t="s">
@@ -1453,24 +1453,24 @@
       <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -1500,7 +1500,7 @@
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="2">
         <v>1</v>
       </c>
       <c r="M2">
@@ -1509,7 +1509,7 @@
       <c r="N2">
         <v>1</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="2">
         <v>1</v>
       </c>
       <c r="P2">
@@ -1518,7 +1518,7 @@
       <c r="Q2">
         <v>1</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="2">
         <v>1</v>
       </c>
       <c r="S2">
@@ -1527,7 +1527,7 @@
       <c r="T2">
         <v>1</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2" s="2">
         <v>1</v>
       </c>
       <c r="V2">
@@ -1536,13 +1536,13 @@
       <c r="W2">
         <v>1</v>
       </c>
-      <c r="X2" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="3">
+      <c r="X2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       <c r="D3">
         <v>4060</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>1</v>
       </c>
       <c r="H3">
@@ -1687,28 +1687,28 @@
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="N5" s="2" t="s">
+      <c r="L5" s="3"/>
+      <c r="N5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -1720,7 +1720,7 @@
       <c r="D6">
         <v>6350</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6">
@@ -1804,10 +1804,10 @@
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="2"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -1819,7 +1819,7 @@
       <c r="D9">
         <v>4130</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>1</v>
       </c>
       <c r="H9">
@@ -1920,7 +1920,7 @@
       <c r="D12">
         <v>5946</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>1</v>
       </c>
       <c r="H12">
@@ -1998,7 +1998,7 @@
       <c r="D15">
         <v>12451</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>1</v>
       </c>
       <c r="H15">
@@ -2275,7 +2275,7 @@
     <mergeCell ref="N5:AC5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/BigData/BD_lb1/q3/out.xlsx
+++ b/BigData/BD_lb1/q3/out.xlsx
@@ -4,11 +4,41 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Лист2!$H$18:$H$19</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Лист2!$L$18</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>Откуда</t>
   </si>
@@ -102,7 +132,28 @@
     <t>a*x+b</t>
   </si>
   <si>
-    <t xml:space="preserve">X^T * (X^T*X)^(-1) </t>
+    <t xml:space="preserve"> (X^T*X)^(-1) *X^T </t>
+  </si>
+  <si>
+    <t>Для графика</t>
+  </si>
+  <si>
+    <t>шаг</t>
+  </si>
+  <si>
+    <t>a0</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>h(x)</t>
+  </si>
+  <si>
+    <t>h(x)-y</t>
+  </si>
+  <si>
+    <t>(h(x)-y)^2</t>
   </si>
 </sst>
 </file>
@@ -126,12 +177,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -147,7 +204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -156,6 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -388,6 +446,165 @@
         </c:dLbls>
         <c:axId val="412659024"/>
         <c:axId val="412659352"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Прямая</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$G$20:$G$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.949999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49.249999999999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53.399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57.54999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>61.699999999999989</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$H$20:$H$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>41.268892366394446</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.250434423042627</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.231976479690807</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.213518536338988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.195060592987176</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71.176602649635356</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.158144706283537</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.139686762931703</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89.121228819579883</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.10277087622805</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>101.08431293287623</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>107.06585498952441</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>113.04739704617259</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>119.02893910282077</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>125.01048115946895</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>130.99202321611713</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>136.97356527276531</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-865A-4662-89BB-CC17DF81AFC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="415827696"/>
+        <c:axId val="415834256"/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="412659024"/>
@@ -513,6 +730,638 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="415834256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415827696"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="415827696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415834256"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Прямая численная </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$G$21:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.949999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49.249999999999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53.399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57.54999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>61.699999999999989</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$H$21:$H$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>41.268894775009514</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.250436418756323</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.231978062503138</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.213519706249947</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.195061349996763</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71.176602993743572</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.158144637490381</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.139686281237189</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89.121227924983998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.102769568730807</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>101.08431121247762</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>107.06585285622444</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>113.04739449997123</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>119.02893614371806</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>125.01047778746485</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>130.99201943121167</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>136.9735610749585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-90B3-4850-81EA-D1DEAD183495}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="475557160"/>
+        <c:axId val="475561096"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$H$2:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$I$2:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>57.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>122.49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44.89</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59.46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67.790000000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67.790000000000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>124.51</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>99.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43.63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-90B3-4850-81EA-D1DEAD183495}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="475557160"/>
+        <c:axId val="475561096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="475557160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475561096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="475561096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475557160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -598,6 +1447,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1114,24 +2003,575 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>45244</xdr:rowOff>
+      <xdr:colOff>119061</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>11906</xdr:colOff>
+      <xdr:colOff>130968</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>121444</xdr:rowOff>
+      <xdr:rowOff>14288</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1414,8 +2854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H17"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,7 +2865,10 @@
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="29" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -1493,9 +2936,9 @@
         <f xml:space="preserve"> D2/100</f>
         <v>57.41</v>
       </c>
-      <c r="J2" t="e">
-        <f xml:space="preserve"> $N$10*H2+$N$11</f>
-        <v>#VALUE!</v>
+      <c r="J2">
+        <f xml:space="preserve"> $N$11*H2+$N$10</f>
+        <v>51.934774587887588</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1567,9 +3010,9 @@
         <f t="shared" ref="I3:I17" si="1" xml:space="preserve"> D3/100</f>
         <v>40.6</v>
       </c>
-      <c r="J3" t="e">
-        <f t="shared" ref="J3:J17" si="2" xml:space="preserve"> $N$10*H3+$N$11</f>
-        <v>#VALUE!</v>
+      <c r="J3">
+        <f t="shared" ref="J3:J17" si="2" xml:space="preserve"> $N$11*H3+$N$10</f>
+        <v>49.772771434882223</v>
       </c>
       <c r="K3">
         <f>H2</f>
@@ -1657,9 +3100,9 @@
         <f t="shared" si="1"/>
         <v>57.2</v>
       </c>
-      <c r="J4" t="e">
+      <c r="J4">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>47.754901825410549</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -1683,9 +3126,9 @@
         <f t="shared" si="1"/>
         <v>122.49</v>
       </c>
-      <c r="J5" t="e">
+      <c r="J5">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>72.113470682604344</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>20</v>
@@ -1731,20 +3174,65 @@
         <f t="shared" si="1"/>
         <v>63.5</v>
       </c>
-      <c r="J6" t="e">
+      <c r="J6">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>63.465458070582876</v>
       </c>
       <c r="K6">
-        <f t="array" ref="K6:L7" xml:space="preserve"> MMULT(G2:H17,K2:Z3)</f>
-        <v>122</v>
+        <f t="array" ref="K6:L7" xml:space="preserve"> MMULT(K2:Z3,G2:H17)</f>
+        <v>16</v>
       </c>
       <c r="L6">
-        <v>105.5</v>
-      </c>
-      <c r="N6" t="e">
-        <f xml:space="preserve"> MMULT(K2:Z3,K9:L10)</f>
-        <v>#VALUE!</v>
+        <v>306</v>
+      </c>
+      <c r="N6">
+        <f t="array" ref="N6:AC7" xml:space="preserve"> MMULT(K9:L10,K2:Z3)</f>
+        <v>0.10264317692738917</v>
+      </c>
+      <c r="O6">
+        <v>0.11005422497552256</v>
+      </c>
+      <c r="P6">
+        <v>0.11697120315378037</v>
+      </c>
+      <c r="Q6">
+        <v>3.3473395144810902E-2</v>
+      </c>
+      <c r="R6">
+        <v>6.3117587337344447E-2</v>
+      </c>
+      <c r="S6">
+        <v>0.13920434729818054</v>
+      </c>
+      <c r="T6">
+        <v>8.2880382132366801E-2</v>
+      </c>
+      <c r="U6">
+        <v>0.13080515951029603</v>
+      </c>
+      <c r="V6">
+        <v>0.11005422497552256</v>
+      </c>
+      <c r="W6">
+        <v>8.2880382132366801E-2</v>
+      </c>
+      <c r="X6">
+        <v>8.7821080831122389E-2</v>
+      </c>
+      <c r="Y6">
+        <v>2.3591997747299726E-2</v>
+      </c>
+      <c r="Z6">
+        <v>2.3591997747299726E-2</v>
+      </c>
+      <c r="AA6">
+        <v>-0.18885804629919067</v>
+      </c>
+      <c r="AB6">
+        <v>-1.0992893143989407E-2</v>
+      </c>
+      <c r="AC6">
+        <v>9.2761779529877977E-2</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -1768,15 +3256,63 @@
         <f t="shared" si="1"/>
         <v>37.409999999999997</v>
       </c>
-      <c r="J7" t="e">
+      <c r="J7">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>41.268892366394446</v>
       </c>
       <c r="K7">
-        <v>105.5</v>
+        <v>306</v>
       </c>
       <c r="L7">
-        <v>91.25</v>
+        <v>9723.16</v>
+      </c>
+      <c r="N7">
+        <v>-2.0989896432621787E-3</v>
+      </c>
+      <c r="O7">
+        <v>-2.4864954235567348E-3</v>
+      </c>
+      <c r="P7">
+        <v>-2.8481674851649876E-3</v>
+      </c>
+      <c r="Q7">
+        <v>1.5177309728203444E-3</v>
+      </c>
+      <c r="R7">
+        <v>-3.2292148357879538E-5</v>
+      </c>
+      <c r="S7">
+        <v>-4.0106848260486553E-3</v>
+      </c>
+      <c r="T7">
+        <v>-1.0656408958100291E-3</v>
+      </c>
+      <c r="U7">
+        <v>-3.5715116083814922E-3</v>
+      </c>
+      <c r="V7">
+        <v>-2.4864954235567348E-3</v>
+      </c>
+      <c r="W7">
+        <v>-1.0656408958100291E-3</v>
+      </c>
+      <c r="X7">
+        <v>-1.3239780826730667E-3</v>
+      </c>
+      <c r="Y7">
+        <v>2.0344053465464196E-3</v>
+      </c>
+      <c r="Z7">
+        <v>2.0344053465464196E-3</v>
+      </c>
+      <c r="AA7">
+        <v>1.3142904381657028E-2</v>
+      </c>
+      <c r="AB7">
+        <v>3.8427656545876807E-3</v>
+      </c>
+      <c r="AC7">
+        <v>-1.5823152695361043E-3</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -1800,9 +3336,9 @@
         <f t="shared" si="1"/>
         <v>42.75</v>
       </c>
-      <c r="J8" t="e">
+      <c r="J8">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>57.700116329235229</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>21</v>
@@ -1830,16 +3366,16 @@
         <f t="shared" si="1"/>
         <v>41.3</v>
       </c>
-      <c r="J9" t="e">
+      <c r="J9">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>43.719162606467194</v>
       </c>
       <c r="K9">
         <f t="array" ref="K9:L10" xml:space="preserve"> MINVERSE(K6:L7)</f>
-        <v>40.555555555566308</v>
+        <v>0.15699086261370065</v>
       </c>
       <c r="L9">
-        <v>-46.88888888890132</v>
+        <v>-4.9406986987555902E-3</v>
       </c>
       <c r="N9" t="s">
         <v>23</v>
@@ -1866,19 +3402,19 @@
         <f t="shared" si="1"/>
         <v>44.89</v>
       </c>
-      <c r="J10" t="e">
+      <c r="J10">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>49.772771434882223</v>
       </c>
       <c r="K10">
-        <v>-46.888888888901327</v>
+        <v>-4.9406986987555902E-3</v>
       </c>
       <c r="L10">
-        <v>54.222222222236603</v>
-      </c>
-      <c r="N10" t="e">
+        <v>2.5833718686303739E-4</v>
+      </c>
+      <c r="N10">
         <f t="array" ref="N10:N11" xml:space="preserve"> MMULT(N6:AC7,I2:I17)</f>
-        <v>#VALUE!</v>
+        <v>36.08008479918157</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -1902,12 +3438,12 @@
         <f t="shared" si="1"/>
         <v>47.9</v>
       </c>
-      <c r="J11" t="e">
+      <c r="J11">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N11" t="e">
-        <v>#VALUE!</v>
+        <v>57.700116329235229</v>
+      </c>
+      <c r="N11">
+        <v>1.4413354353369108</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
@@ -1931,9 +3467,9 @@
         <f t="shared" si="1"/>
         <v>59.46</v>
       </c>
-      <c r="J12" t="e">
+      <c r="J12">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>56.258780893898319</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -1957,9 +3493,9 @@
         <f t="shared" si="1"/>
         <v>67.790000000000006</v>
       </c>
-      <c r="J13" t="e">
+      <c r="J13">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>74.996141553278164</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -1983,9 +3519,9 @@
         <f t="shared" si="1"/>
         <v>67.790000000000006</v>
       </c>
-      <c r="J14" t="e">
+      <c r="J14">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>74.996141553278164</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -2009,9 +3545,9 @@
         <f t="shared" si="1"/>
         <v>124.51</v>
       </c>
-      <c r="J15" t="e">
+      <c r="J15">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>136.97356527276531</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
@@ -2035,9 +3571,9 @@
         <f t="shared" si="1"/>
         <v>99.7</v>
       </c>
-      <c r="J16" t="e">
+      <c r="J16">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>85.085489600636535</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -2061,102 +3597,249 @@
         <f t="shared" si="1"/>
         <v>43.63</v>
       </c>
-      <c r="J17" t="e">
+      <c r="J17">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>54.817445458561409</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="3"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f xml:space="preserve"> (G36 -G20)/16</f>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="G20">
+        <f xml:space="preserve"> MIN(H2:H17)</f>
+        <v>3.6</v>
+      </c>
+      <c r="H20">
+        <f xml:space="preserve"> $N$11 * G20 + $N$10</f>
+        <v>41.268892366394446</v>
+      </c>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <f xml:space="preserve"> G20 +$F$20</f>
+        <v>7.75</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:H36" si="3" xml:space="preserve"> $N$11 * G21 + $N$10</f>
+        <v>47.250434423042627</v>
+      </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <f t="shared" ref="G22:G35" si="4" xml:space="preserve"> G21 +$F$20</f>
+        <v>11.9</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>53.231976479690807</v>
+      </c>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>16.05</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>59.213518536338988</v>
+      </c>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>20.200000000000003</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>65.195060592987176</v>
+      </c>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>24.35</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>71.176602649635356</v>
+      </c>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <f t="shared" si="4"/>
+        <v>28.5</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>77.158144706283537</v>
+      </c>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <f t="shared" si="4"/>
+        <v>32.65</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>83.139686762931703</v>
+      </c>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>89.121228819579883</v>
+      </c>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>40.949999999999996</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>95.10277087622805</v>
+      </c>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>45.099999999999994</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>101.08431293287623</v>
+      </c>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>49.249999999999993</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>107.06585498952441</v>
+      </c>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>53.399999999999991</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>113.04739704617259</v>
+      </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <f t="shared" si="4"/>
+        <v>57.54999999999999</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>119.02893910282077</v>
+      </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <f t="shared" si="4"/>
+        <v>61.699999999999989</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="3"/>
+        <v>125.01048115946895</v>
+      </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <f t="shared" si="4"/>
+        <v>65.849999999999994</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>130.99202321611713</v>
+      </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <f xml:space="preserve"> MAX(H2:H17)</f>
+        <v>70</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="3"/>
+        <v>136.97356527276531</v>
+      </c>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:9" x14ac:dyDescent="0.25">
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:9" x14ac:dyDescent="0.25">
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:9" x14ac:dyDescent="0.25">
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:9" x14ac:dyDescent="0.25">
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:9" x14ac:dyDescent="0.25">
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:9" x14ac:dyDescent="0.25">
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="7:9" x14ac:dyDescent="0.25">
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="7:9" x14ac:dyDescent="0.25">
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="7:9" x14ac:dyDescent="0.25">
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="7:9" x14ac:dyDescent="0.25">
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="7:9" x14ac:dyDescent="0.25">
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="7:9" x14ac:dyDescent="0.25">
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="9:9" x14ac:dyDescent="0.25">
@@ -2268,14 +3951,813 @@
       <c r="I84" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="K1:Z1"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="N5:AC5"/>
+    <mergeCell ref="G19:H19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>1100</v>
+      </c>
+      <c r="D2">
+        <v>5741</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f xml:space="preserve"> C2/100</f>
+        <v>11</v>
+      </c>
+      <c r="I2">
+        <f xml:space="preserve"> D2/100</f>
+        <v>57.41</v>
+      </c>
+      <c r="J2">
+        <f xml:space="preserve"> $H$18 + $H$19 * H2</f>
+        <v>51.934776260244789</v>
+      </c>
+      <c r="K2">
+        <f xml:space="preserve"> J2 -I2</f>
+        <v>-5.4752237397552079</v>
+      </c>
+      <c r="L2">
+        <f>K2^2</f>
+        <v>29.978075000379004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>950</v>
+      </c>
+      <c r="D3">
+        <v>4060</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:I17" si="0" xml:space="preserve"> C3/100</f>
+        <v>9.5</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>40.6</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J17" si="1" xml:space="preserve"> $H$18 + $H$19 * H3</f>
+        <v>49.772773256480882</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K17" si="2" xml:space="preserve"> J3 -I3</f>
+        <v>9.1727732564808804</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L17" si="3">K3^2</f>
+        <v>84.139769214810855</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>810</v>
+      </c>
+      <c r="D4">
+        <v>5720</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>8.1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>57.2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>47.754903786301234</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>-9.4450962136987684</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="3"/>
+        <v>89.209842486026815</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>2500</v>
+      </c>
+      <c r="D5">
+        <v>12249</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>122.49</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>72.113470962041262</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>-50.376529037958733</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>2537.7946779122994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>1900</v>
+      </c>
+      <c r="D6">
+        <v>6350</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>63.5</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>63.465458946985635</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>-3.4541053014365275E-2</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>1.1930843433411924E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>360</v>
+      </c>
+      <c r="D7">
+        <v>3741</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>37.409999999999997</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>41.268894775009514</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>3.8588947750095173</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>14.891068884595754</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>1500</v>
+      </c>
+      <c r="D8">
+        <v>4275</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>42.75</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>57.700117603615212</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>14.950117603615212</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>223.50601636192545</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>530</v>
+      </c>
+      <c r="D9">
+        <v>4130</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>5.3</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>41.3</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>43.71916484594194</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>2.4191648459419426</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>5.852358551841303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>950</v>
+      </c>
+      <c r="D10">
+        <v>4489</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>44.89</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>49.772773256480882</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>4.8827732564808812</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>23.84147467420491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>1500</v>
+      </c>
+      <c r="D11">
+        <v>4790</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>47.9</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>57.700117603615212</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>9.8001176036152131</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>96.042305044688788</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>1400</v>
+      </c>
+      <c r="D12">
+        <v>5946</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>59.46</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>56.258782267772602</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>-3.2012177322273985</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>10.247794969127128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>2700</v>
+      </c>
+      <c r="D13">
+        <v>6779</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>67.790000000000006</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>74.996141633726467</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>7.2061416337264603</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>51.928477245325858</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>2700</v>
+      </c>
+      <c r="D14">
+        <v>6779</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>67.790000000000006</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>74.996141633726467</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>7.2061416337264603</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>51.928477245325858</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>7000</v>
+      </c>
+      <c r="D15">
+        <v>12451</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>124.51</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>136.9735610749585</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>12.463561074958491</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>155.34035466922046</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>3400</v>
+      </c>
+      <c r="D16">
+        <v>9970</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>99.7</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>85.085488984624703</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>-14.6145110153753</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="3"/>
+        <v>213.58393221852597</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>1300</v>
+      </c>
+      <c r="D17">
+        <v>4363</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>43.63</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>54.817446931930007</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>11.187446931930005</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>125.15896885475007</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18">
+        <v>36.080087565976136</v>
+      </c>
+      <c r="L18" s="4">
+        <f xml:space="preserve"> SUM(L2:L17)</f>
+        <v>3713.4447864173912</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19">
+        <v>1.4413353358426051</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f xml:space="preserve"> (G37 -G21)/16</f>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="G21">
+        <f xml:space="preserve"> MIN(H3:H18)</f>
+        <v>3.6</v>
+      </c>
+      <c r="H21">
+        <f xml:space="preserve"> $H$19 * G21 + $H$18</f>
+        <v>41.268894775009514</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <f xml:space="preserve"> G21 +$F$21</f>
+        <v>7.75</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ref="H22:H37" si="4" xml:space="preserve"> $H$19 * G22 + $H$18</f>
+        <v>47.250436418756323</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <f t="shared" ref="G23:G36" si="5" xml:space="preserve"> G22 +$F$21</f>
+        <v>11.9</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="4"/>
+        <v>53.231978062503138</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <f t="shared" si="5"/>
+        <v>16.05</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="4"/>
+        <v>59.213519706249947</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <f t="shared" si="5"/>
+        <v>20.200000000000003</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>65.195061349996763</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <f t="shared" si="5"/>
+        <v>24.35</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>71.176602993743572</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <f t="shared" si="5"/>
+        <v>28.5</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="4"/>
+        <v>77.158144637490381</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <f t="shared" si="5"/>
+        <v>32.65</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="4"/>
+        <v>83.139686281237189</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="4"/>
+        <v>89.121227924983998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <f t="shared" si="5"/>
+        <v>40.949999999999996</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="4"/>
+        <v>95.102769568730807</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <f t="shared" si="5"/>
+        <v>45.099999999999994</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="4"/>
+        <v>101.08431121247762</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <f t="shared" si="5"/>
+        <v>49.249999999999993</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="4"/>
+        <v>107.06585285622444</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <f t="shared" si="5"/>
+        <v>53.399999999999991</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="4"/>
+        <v>113.04739449997123</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <f t="shared" si="5"/>
+        <v>57.54999999999999</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="4"/>
+        <v>119.02893614371806</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <f t="shared" si="5"/>
+        <v>61.699999999999989</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="4"/>
+        <v>125.01047778746485</v>
+      </c>
+    </row>
+    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <f t="shared" si="5"/>
+        <v>65.849999999999994</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="4"/>
+        <v>130.99201943121167</v>
+      </c>
+    </row>
+    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <f xml:space="preserve"> MAX(H3:H18)</f>
+        <v>70</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="4"/>
+        <v>136.9735610749585</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G20:H20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/BigData/BD_lb1/q3/out.xlsx
+++ b/BigData/BD_lb1/q3/out.xlsx
@@ -4,40 +4,68 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">Лист2!$H$18:$H$19</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">Лист3!$S$14:$S$17</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">Лист2!$L$18</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">Лист3!$V$14</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -49,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
   <si>
     <t>Откуда</t>
   </si>
@@ -155,6 +183,33 @@
   <si>
     <t>(h(x)-y)^2</t>
   </si>
+  <si>
+    <t>a0 =</t>
+  </si>
+  <si>
+    <t>a1=</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>f - y</t>
+  </si>
+  <si>
+    <t>(f - y)^2</t>
+  </si>
+  <si>
+    <t>f2_square</t>
+  </si>
+  <si>
+    <t>f3_qubic</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>f -y</t>
+  </si>
 </sst>
 </file>
 
@@ -191,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -199,21 +254,112 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -2896,24 +3042,24 @@
       <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -3130,28 +3276,28 @@
         <f t="shared" si="2"/>
         <v>72.113470682604344</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="N5" s="3" t="s">
+      <c r="L5" s="4"/>
+      <c r="N5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -3340,10 +3486,10 @@
         <f t="shared" si="2"/>
         <v>57.700116329235229</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -3609,10 +3755,10 @@
       <c r="F19" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="4"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -3968,8 +4114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4557,7 +4703,7 @@
       <c r="H18">
         <v>36.080087565976136</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="3">
         <f xml:space="preserve"> SUM(L2:L17)</f>
         <v>3713.4447864173912</v>
       </c>
@@ -4574,10 +4720,10 @@
       <c r="F20" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="3"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F21">
@@ -4760,4 +4906,1026 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1100</v>
+      </c>
+      <c r="B2">
+        <v>5741</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <f xml:space="preserve"> A2/100</f>
+        <v>11</v>
+      </c>
+      <c r="G2" s="9">
+        <f xml:space="preserve"> B2/100</f>
+        <v>57.41</v>
+      </c>
+      <c r="H2" s="9">
+        <f xml:space="preserve"> $H$15*F2+$H$14</f>
+        <v>50.021895617401498</v>
+      </c>
+      <c r="I2" s="9">
+        <f xml:space="preserve"> H2-G2</f>
+        <v>-7.3881043825984989</v>
+      </c>
+      <c r="J2" s="10">
+        <f>I2^2</f>
+        <v>54.58408636817115</v>
+      </c>
+      <c r="L2" s="8">
+        <f xml:space="preserve"> F2</f>
+        <v>11</v>
+      </c>
+      <c r="M2" s="9">
+        <f xml:space="preserve"> G2</f>
+        <v>57.41</v>
+      </c>
+      <c r="N2" s="9">
+        <f xml:space="preserve"> $M$14 + $M$15*L2 + $M$16*L2^2</f>
+        <v>49.811600011153743</v>
+      </c>
+      <c r="O2" s="9">
+        <f xml:space="preserve"> N2 - M2</f>
+        <v>-7.5983999888462534</v>
+      </c>
+      <c r="P2" s="10">
+        <f xml:space="preserve"> O2^2</f>
+        <v>57.735682390498745</v>
+      </c>
+      <c r="R2" s="8">
+        <f xml:space="preserve"> L2</f>
+        <v>11</v>
+      </c>
+      <c r="S2" s="9">
+        <f xml:space="preserve"> M2</f>
+        <v>57.41</v>
+      </c>
+      <c r="T2" s="9">
+        <f xml:space="preserve"> $S$14+$S$15*R2+$S$16*R2^2+$S$17*R2^3</f>
+        <v>46.030227009958253</v>
+      </c>
+      <c r="U2" s="9">
+        <f xml:space="preserve"> T2 - S2+S21</f>
+        <v>-11.379772990041744</v>
+      </c>
+      <c r="V2" s="10">
+        <f>U2^2</f>
+        <v>129.4992333048836</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>950</v>
+      </c>
+      <c r="B3">
+        <v>4060</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" ref="F3:G17" si="0" xml:space="preserve"> A3/100</f>
+        <v>9.5</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" si="0"/>
+        <v>40.6</v>
+      </c>
+      <c r="H3" s="9">
+        <f t="shared" ref="H3:H13" si="1" xml:space="preserve"> $H$15*F3+$H$14</f>
+        <v>46.520485524900892</v>
+      </c>
+      <c r="I3" s="9">
+        <f t="shared" ref="I3:I13" si="2" xml:space="preserve"> H3-G3</f>
+        <v>5.9204855249008901</v>
+      </c>
+      <c r="J3" s="10">
+        <f t="shared" ref="J3:J13" si="3">I3^2</f>
+        <v>35.052148850560968</v>
+      </c>
+      <c r="L3" s="8">
+        <f t="shared" ref="L3:L13" si="4" xml:space="preserve"> F3</f>
+        <v>9.5</v>
+      </c>
+      <c r="M3" s="9">
+        <f t="shared" ref="M3:M13" si="5" xml:space="preserve"> G3</f>
+        <v>40.6</v>
+      </c>
+      <c r="N3" s="9">
+        <f t="shared" ref="N3:N13" si="6" xml:space="preserve"> $M$14 + $M$15*L3 + $M$16*L3^2</f>
+        <v>46.482327432986537</v>
+      </c>
+      <c r="O3" s="9">
+        <f t="shared" ref="O3:O13" si="7" xml:space="preserve"> N3 - M3</f>
+        <v>5.8823274329865356</v>
+      </c>
+      <c r="P3" s="10">
+        <f t="shared" ref="P3:P13" si="8" xml:space="preserve"> O3^2</f>
+        <v>34.601776028865963</v>
+      </c>
+      <c r="R3" s="8">
+        <f t="shared" ref="R3:R13" si="9" xml:space="preserve"> L3</f>
+        <v>9.5</v>
+      </c>
+      <c r="S3" s="9">
+        <f t="shared" ref="S3:S13" si="10" xml:space="preserve"> M3</f>
+        <v>40.6</v>
+      </c>
+      <c r="T3" s="9">
+        <f t="shared" ref="T3:T13" si="11" xml:space="preserve"> $S$14+$S$15*R3+$S$16*R3^2+$S$17*R3^3</f>
+        <v>42.992913094386282</v>
+      </c>
+      <c r="U3" s="9">
+        <f t="shared" ref="U3:U13" si="12" xml:space="preserve"> T3 - S3</f>
+        <v>2.3929130943862802</v>
+      </c>
+      <c r="V3" s="10">
+        <f t="shared" ref="V3:V13" si="13">U3^2</f>
+        <v>5.7260330772853223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2500</v>
+      </c>
+      <c r="B4">
+        <v>12249</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <f xml:space="preserve"> A4/100</f>
+        <v>25</v>
+      </c>
+      <c r="G4" s="9">
+        <f xml:space="preserve"> B4/100</f>
+        <v>122.49</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" si="1"/>
+        <v>82.701723147407108</v>
+      </c>
+      <c r="I4" s="9">
+        <f t="shared" si="2"/>
+        <v>-39.788276852592887</v>
+      </c>
+      <c r="J4" s="10">
+        <f t="shared" si="3"/>
+        <v>1583.106974898579</v>
+      </c>
+      <c r="L4" s="8">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="M4" s="9">
+        <f t="shared" si="5"/>
+        <v>122.49</v>
+      </c>
+      <c r="N4" s="9">
+        <f t="shared" si="6"/>
+        <v>82.401340469994508</v>
+      </c>
+      <c r="O4" s="9">
+        <f t="shared" si="7"/>
+        <v>-40.088659530005486</v>
+      </c>
+      <c r="P4" s="10">
+        <f t="shared" si="8"/>
+        <v>1607.1006229126997</v>
+      </c>
+      <c r="R4" s="8">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="S4" s="9">
+        <f t="shared" si="10"/>
+        <v>122.49</v>
+      </c>
+      <c r="T4" s="9">
+        <f t="shared" si="11"/>
+        <v>89.365812176003516</v>
+      </c>
+      <c r="U4" s="9">
+        <f t="shared" si="12"/>
+        <v>-33.124187823996479</v>
+      </c>
+      <c r="V4" s="10">
+        <f t="shared" si="13"/>
+        <v>1097.2118189993967</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1900</v>
+      </c>
+      <c r="B5">
+        <v>6350</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <f xml:space="preserve"> A5/100</f>
+        <v>19</v>
+      </c>
+      <c r="G5" s="9">
+        <f xml:space="preserve"> B5/100</f>
+        <v>63.5</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="1"/>
+        <v>68.696082777404712</v>
+      </c>
+      <c r="I5" s="9">
+        <f t="shared" si="2"/>
+        <v>5.1960827774047118</v>
+      </c>
+      <c r="J5" s="10">
+        <f t="shared" si="3"/>
+        <v>26.999276229641865</v>
+      </c>
+      <c r="L5" s="8">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="M5" s="9">
+        <f t="shared" si="5"/>
+        <v>63.5</v>
+      </c>
+      <c r="N5" s="9">
+        <f t="shared" si="6"/>
+        <v>68.098855264106746</v>
+      </c>
+      <c r="O5" s="9">
+        <f t="shared" si="7"/>
+        <v>4.5988552641067457</v>
+      </c>
+      <c r="P5" s="10">
+        <f t="shared" si="8"/>
+        <v>21.149469740202324</v>
+      </c>
+      <c r="R5" s="8">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="S5" s="9">
+        <f t="shared" si="10"/>
+        <v>63.5</v>
+      </c>
+      <c r="T5" s="9">
+        <f t="shared" si="11"/>
+        <v>70.487451162521907</v>
+      </c>
+      <c r="U5" s="9">
+        <f t="shared" si="12"/>
+        <v>6.9874511625219071</v>
+      </c>
+      <c r="V5" s="10">
+        <f t="shared" si="13"/>
+        <v>48.824473748628755</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>360</v>
+      </c>
+      <c r="B6">
+        <v>3741</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <f xml:space="preserve"> A6/100</f>
+        <v>3.6</v>
+      </c>
+      <c r="G6" s="9">
+        <f xml:space="preserve"> B6/100</f>
+        <v>37.409999999999997</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="1"/>
+        <v>32.74827249439852</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="shared" si="2"/>
+        <v>-4.6617275056014762</v>
+      </c>
+      <c r="J6" s="10">
+        <f t="shared" si="3"/>
+        <v>21.73170333648136</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" si="4"/>
+        <v>3.6</v>
+      </c>
+      <c r="M6" s="9">
+        <f t="shared" si="5"/>
+        <v>37.409999999999997</v>
+      </c>
+      <c r="N6" s="9">
+        <f t="shared" si="6"/>
+        <v>33.692311611613583</v>
+      </c>
+      <c r="O6" s="9">
+        <f t="shared" si="7"/>
+        <v>-3.7176883883864136</v>
+      </c>
+      <c r="P6" s="10">
+        <f t="shared" si="8"/>
+        <v>13.82120695314317</v>
+      </c>
+      <c r="R6" s="8">
+        <f t="shared" si="9"/>
+        <v>3.6</v>
+      </c>
+      <c r="S6" s="9">
+        <f t="shared" si="10"/>
+        <v>37.409999999999997</v>
+      </c>
+      <c r="T6" s="9">
+        <f t="shared" si="11"/>
+        <v>40.227286662953745</v>
+      </c>
+      <c r="U6" s="9">
+        <f t="shared" si="12"/>
+        <v>2.8172866629537481</v>
+      </c>
+      <c r="V6" s="10">
+        <f t="shared" si="13"/>
+        <v>7.9371041412570653</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>530</v>
+      </c>
+      <c r="B7">
+        <v>4130</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <f xml:space="preserve"> A7/100</f>
+        <v>5.3</v>
+      </c>
+      <c r="G7" s="9">
+        <f xml:space="preserve"> B7/100</f>
+        <v>41.3</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="1"/>
+        <v>36.716537265899206</v>
+      </c>
+      <c r="I7" s="9">
+        <f t="shared" si="2"/>
+        <v>-4.5834627341007916</v>
+      </c>
+      <c r="J7" s="10">
+        <f t="shared" si="3"/>
+        <v>21.008130634890705</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="4"/>
+        <v>5.3</v>
+      </c>
+      <c r="M7" s="9">
+        <f t="shared" si="5"/>
+        <v>41.3</v>
+      </c>
+      <c r="N7" s="9">
+        <f t="shared" si="6"/>
+        <v>37.327671687477697</v>
+      </c>
+      <c r="O7" s="9">
+        <f t="shared" si="7"/>
+        <v>-3.9723283125223006</v>
+      </c>
+      <c r="P7" s="10">
+        <f t="shared" si="8"/>
+        <v>15.779392222466267</v>
+      </c>
+      <c r="R7" s="8">
+        <f t="shared" si="9"/>
+        <v>5.3</v>
+      </c>
+      <c r="S7" s="9">
+        <f t="shared" si="10"/>
+        <v>41.3</v>
+      </c>
+      <c r="T7" s="9">
+        <f t="shared" si="11"/>
+        <v>39.25413990585615</v>
+      </c>
+      <c r="U7" s="9">
+        <f t="shared" si="12"/>
+        <v>-2.0458600941438476</v>
+      </c>
+      <c r="V7" s="10">
+        <f t="shared" si="13"/>
+        <v>4.1855435248102735</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>950</v>
+      </c>
+      <c r="B8">
+        <v>4489</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <f xml:space="preserve"> A8/100</f>
+        <v>9.5</v>
+      </c>
+      <c r="G8" s="9">
+        <f xml:space="preserve"> B8/100</f>
+        <v>44.89</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="1"/>
+        <v>46.520485524900892</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6304855249008909</v>
+      </c>
+      <c r="J8" s="10">
+        <f t="shared" si="3"/>
+        <v>2.6584830469113339</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" si="4"/>
+        <v>9.5</v>
+      </c>
+      <c r="M8" s="9">
+        <f t="shared" si="5"/>
+        <v>44.89</v>
+      </c>
+      <c r="N8" s="9">
+        <f t="shared" si="6"/>
+        <v>46.482327432986537</v>
+      </c>
+      <c r="O8" s="9">
+        <f t="shared" si="7"/>
+        <v>1.5923274329865365</v>
+      </c>
+      <c r="P8" s="10">
+        <f t="shared" si="8"/>
+        <v>2.5355066538414928</v>
+      </c>
+      <c r="R8" s="8">
+        <f t="shared" si="9"/>
+        <v>9.5</v>
+      </c>
+      <c r="S8" s="9">
+        <f t="shared" si="10"/>
+        <v>44.89</v>
+      </c>
+      <c r="T8" s="9">
+        <f t="shared" si="11"/>
+        <v>42.992913094386282</v>
+      </c>
+      <c r="U8" s="9">
+        <f t="shared" si="12"/>
+        <v>-1.897086905613719</v>
+      </c>
+      <c r="V8" s="10">
+        <f t="shared" si="13"/>
+        <v>3.5989387274510354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1500</v>
+      </c>
+      <c r="B9">
+        <v>4790</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <f xml:space="preserve"> A9/100</f>
+        <v>15</v>
+      </c>
+      <c r="G9" s="9">
+        <f xml:space="preserve"> B9/100</f>
+        <v>47.9</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="1"/>
+        <v>59.358989197403098</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="shared" si="2"/>
+        <v>11.458989197403099</v>
+      </c>
+      <c r="J9" s="10">
+        <f t="shared" si="3"/>
+        <v>131.30843342620091</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="M9" s="9">
+        <f t="shared" si="5"/>
+        <v>47.9</v>
+      </c>
+      <c r="N9" s="9">
+        <f t="shared" si="6"/>
+        <v>58.843409777406812</v>
+      </c>
+      <c r="O9" s="9">
+        <f t="shared" si="7"/>
+        <v>10.943409777406814</v>
+      </c>
+      <c r="P9" s="10">
+        <f t="shared" si="8"/>
+        <v>119.75821755624304</v>
+      </c>
+      <c r="R9" s="8">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="S9" s="9">
+        <f t="shared" si="10"/>
+        <v>47.9</v>
+      </c>
+      <c r="T9" s="9">
+        <f t="shared" si="11"/>
+        <v>57.100990096314035</v>
+      </c>
+      <c r="U9" s="9">
+        <f t="shared" si="12"/>
+        <v>9.2009900963140367</v>
+      </c>
+      <c r="V9" s="10">
+        <f t="shared" si="13"/>
+        <v>84.658218752468983</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1400</v>
+      </c>
+      <c r="B10">
+        <v>5946</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
+        <f xml:space="preserve"> A10/100</f>
+        <v>14</v>
+      </c>
+      <c r="G10" s="9">
+        <f xml:space="preserve"> B10/100</f>
+        <v>59.46</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="1"/>
+        <v>57.024715802402696</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="2"/>
+        <v>-2.435284197597305</v>
+      </c>
+      <c r="J10" s="10">
+        <f t="shared" si="3"/>
+        <v>5.9306091230671498</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="M10" s="9">
+        <f t="shared" si="5"/>
+        <v>59.46</v>
+      </c>
+      <c r="N10" s="9">
+        <f t="shared" si="6"/>
+        <v>56.564491487051654</v>
+      </c>
+      <c r="O10" s="9">
+        <f t="shared" si="7"/>
+        <v>-2.8955085129483464</v>
+      </c>
+      <c r="P10" s="10">
+        <f t="shared" si="8"/>
+        <v>8.3839695485563439</v>
+      </c>
+      <c r="R10" s="8">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="S10" s="9">
+        <f t="shared" si="10"/>
+        <v>59.46</v>
+      </c>
+      <c r="T10" s="9">
+        <f t="shared" si="11"/>
+        <v>54.017215776648712</v>
+      </c>
+      <c r="U10" s="9">
+        <f t="shared" si="12"/>
+        <v>-5.4427842233512891</v>
+      </c>
+      <c r="V10" s="10">
+        <f t="shared" si="13"/>
+        <v>29.623900101961695</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2700</v>
+      </c>
+      <c r="B11">
+        <v>6779</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8">
+        <f xml:space="preserve"> A11/100</f>
+        <v>27</v>
+      </c>
+      <c r="G11" s="9">
+        <f xml:space="preserve"> B11/100</f>
+        <v>67.790000000000006</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="1"/>
+        <v>87.370269937407912</v>
+      </c>
+      <c r="I11" s="9">
+        <f t="shared" si="2"/>
+        <v>19.580269937407905</v>
+      </c>
+      <c r="J11" s="10">
+        <f t="shared" si="3"/>
+        <v>383.3869708217598</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="M11" s="9">
+        <f t="shared" si="5"/>
+        <v>67.790000000000006</v>
+      </c>
+      <c r="N11" s="9">
+        <f t="shared" si="6"/>
+        <v>87.280653398847178</v>
+      </c>
+      <c r="O11" s="9">
+        <f t="shared" si="7"/>
+        <v>19.490653398847172</v>
+      </c>
+      <c r="P11" s="10">
+        <f t="shared" si="8"/>
+        <v>379.88556991399281</v>
+      </c>
+      <c r="R11" s="8">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
+      <c r="S11" s="9">
+        <f t="shared" si="10"/>
+        <v>67.790000000000006</v>
+      </c>
+      <c r="T11" s="9">
+        <f t="shared" si="11"/>
+        <v>94.071212518054352</v>
+      </c>
+      <c r="U11" s="9">
+        <f t="shared" si="12"/>
+        <v>26.281212518054346</v>
+      </c>
+      <c r="V11" s="10">
+        <f t="shared" si="13"/>
+        <v>690.70213141913644</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3400</v>
+      </c>
+      <c r="B12">
+        <v>9970</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8">
+        <f xml:space="preserve"> A12/100</f>
+        <v>34</v>
+      </c>
+      <c r="G12" s="9">
+        <f xml:space="preserve"> B12/100</f>
+        <v>99.7</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="1"/>
+        <v>103.71018370241072</v>
+      </c>
+      <c r="I12" s="9">
+        <f t="shared" si="2"/>
+        <v>4.0101837024107141</v>
+      </c>
+      <c r="J12" s="10">
+        <f t="shared" si="3"/>
+        <v>16.081573327080502</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="M12" s="9">
+        <f t="shared" si="5"/>
+        <v>99.7</v>
+      </c>
+      <c r="N12" s="9">
+        <f t="shared" si="6"/>
+        <v>104.79853147446131</v>
+      </c>
+      <c r="O12" s="9">
+        <f t="shared" si="7"/>
+        <v>5.0985314744613106</v>
+      </c>
+      <c r="P12" s="10">
+        <f t="shared" si="8"/>
+        <v>25.995023196072626</v>
+      </c>
+      <c r="R12" s="8">
+        <f t="shared" si="9"/>
+        <v>34</v>
+      </c>
+      <c r="S12" s="9">
+        <f t="shared" si="10"/>
+        <v>99.7</v>
+      </c>
+      <c r="T12" s="9">
+        <f t="shared" si="11"/>
+        <v>98.053606396553619</v>
+      </c>
+      <c r="U12" s="9">
+        <f t="shared" si="12"/>
+        <v>-1.6463936034463842</v>
+      </c>
+      <c r="V12" s="10">
+        <f t="shared" si="13"/>
+        <v>2.7106118974691698</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1300</v>
+      </c>
+      <c r="B13">
+        <v>4363</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8">
+        <f xml:space="preserve"> A13/100</f>
+        <v>13</v>
+      </c>
+      <c r="G13" s="9">
+        <f xml:space="preserve"> B13/100</f>
+        <v>43.63</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="1"/>
+        <v>54.690442407402294</v>
+      </c>
+      <c r="I13" s="9">
+        <f t="shared" si="2"/>
+        <v>11.060442407402292</v>
+      </c>
+      <c r="J13" s="10">
+        <f t="shared" si="3"/>
+        <v>122.333386247463</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="M13" s="9">
+        <f t="shared" si="5"/>
+        <v>43.63</v>
+      </c>
+      <c r="N13" s="9">
+        <f t="shared" si="6"/>
+        <v>54.299550429224418</v>
+      </c>
+      <c r="O13" s="9">
+        <f t="shared" si="7"/>
+        <v>10.669550429224415</v>
+      </c>
+      <c r="P13" s="10">
+        <f t="shared" si="8"/>
+        <v>113.83930636176291</v>
+      </c>
+      <c r="R13" s="8">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="S13" s="9">
+        <f t="shared" si="10"/>
+        <v>43.63</v>
+      </c>
+      <c r="T13" s="9">
+        <f t="shared" si="11"/>
+        <v>51.117767325710261</v>
+      </c>
+      <c r="U13" s="9">
+        <f t="shared" si="12"/>
+        <v>7.4877673257102586</v>
+      </c>
+      <c r="V13" s="10">
+        <f t="shared" si="13"/>
+        <v>56.06665952397416</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="F14" s="8"/>
+      <c r="G14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="9">
+        <v>24.344888272397078</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="10">
+        <f xml:space="preserve"> SUM(J2:J13)</f>
+        <v>2404.1817763108079</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="9">
+        <v>26.127244837511896</v>
+      </c>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="10">
+        <f xml:space="preserve"> SUM(P2:P13)</f>
+        <v>2400.5857434783447</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S14" s="9">
+        <v>48.214200486325325</v>
+      </c>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="10">
+        <f xml:space="preserve"> SUM(V2:V13)</f>
+        <v>2160.7446672187234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="2"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="12">
+        <v>2.3342733950004013</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
+      <c r="L15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="9">
+        <v>2.0762484187001964</v>
+      </c>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="10"/>
+      <c r="R15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="9">
+        <v>-3.4626366613466608</v>
+      </c>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="10"/>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" s="12">
+        <v>6.9886162639643127E-3</v>
+      </c>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="13"/>
+      <c r="R16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S16" s="9">
+        <v>0.36932614926606844</v>
+      </c>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="10"/>
+    </row>
+    <row r="17" spans="18:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="S17" s="12">
+        <v>-6.5991241643486758E-3</v>
+      </c>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BigData/BD_lb1/q3/out.xlsx
+++ b/BigData/BD_lb1/q3/out.xlsx
@@ -4,68 +4,98 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист5" sheetId="5" r:id="rId5"/>
+    <sheet name="Лист6" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">Лист2!$H$18:$H$19</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">Лист3!$S$14:$S$17</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">Лист4!$F$5:$F$6</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">Лист2!$L$18</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">Лист3!$V$14</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">Лист4!$G$5</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -77,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="62">
   <si>
     <t>Откуда</t>
   </si>
@@ -210,6 +240,60 @@
   <si>
     <t>f -y</t>
   </si>
+  <si>
+    <t>шаг =</t>
+  </si>
+  <si>
+    <t>y_лин</t>
+  </si>
+  <si>
+    <t>y_кв</t>
+  </si>
+  <si>
+    <t>y_куб</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>проверочная</t>
+  </si>
+  <si>
+    <t>обучающая</t>
+  </si>
+  <si>
+    <t>y^2</t>
+  </si>
+  <si>
+    <t>y(p)</t>
+  </si>
+  <si>
+    <t>y - y(p)</t>
+  </si>
+  <si>
+    <t>Суммы</t>
+  </si>
+  <si>
+    <t>[y - y(p)]^2</t>
+  </si>
+  <si>
+    <t>Sy^2</t>
+  </si>
+  <si>
+    <t>Sy^2 ост</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Fтаб</t>
+  </si>
+  <si>
+    <t>F&gt;F таб</t>
+  </si>
+  <si>
+    <t>Уравнение регрессии неадекватно</t>
+  </si>
 </sst>
 </file>
 
@@ -232,7 +316,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,8 +329,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -334,21 +424,205 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -360,6 +634,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1553,6 +1847,1502 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Линейная</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист3!$F$19:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.733333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.266666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.86666666666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.933333333333323</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31.466666666666654</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33.999999999999986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист3!$G$19:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>32.74827249439852</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.661765095066201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.575257695733889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.488750296401577</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.402242897069257</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.315735497736938</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.229228098404619</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74.142720699072299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.056213299739966</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85.969705900407661</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91.883198501075327</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>97.796691101743022</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>103.71018370241069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2629-43F0-AE0E-66FB7EFF6F0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Парабола_кв</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист3!$F$19:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.733333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.266666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.86666666666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.933333333333323</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31.466666666666654</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33.999999999999986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист3!$H$19:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>33.692311611613583</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.124464685798408</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.646320532295803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.257879151105776</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.959140542228326</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.750104705663439</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.63077164141113</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73.601141349471391</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79.661213829844215</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85.81098908252963</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92.050467107527609</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98.379647904838166</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>104.79853147446129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2629-43F0-AE0E-66FB7EFF6F0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>куб_параб</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист3!$F$19:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.733333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.266666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.86666666666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.933333333333323</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31.466666666666654</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33.999999999999986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист3!$I$19:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>40.227286662953745</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.347359071112237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.649394769431836</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.489647729208286</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.224371921737351</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.209821318314781</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.802249890236283</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78.357911608797636</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86.233060445294626</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>92.783950371022982</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>97.366835357278404</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99.337969375356735</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>98.053606396553704</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2629-43F0-AE0E-66FB7EFF6F0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="381979936"/>
+        <c:axId val="381980264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="381979936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381980264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="381980264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381979936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист4!$E$11:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1083333333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9166666666666661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.725</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.533333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.341666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.958333333333332</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.766666666666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.574999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.383333333333333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.191666666666666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист4!$F$11:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>44.272287393326735</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.397859935897053</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.52343247846737</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.649005021037688</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.774577563608005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.90015010617833</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57.025722648748641</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59.151295191318965</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.276867733889283</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.4024402764596</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65.528012819029925</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67.653585361600236</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>69.77915790417056</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5CF6-45E1-93BE-A428541B955D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Парабола_кв</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист4!$E$11:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1083333333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9166666666666661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.725</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.533333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.341666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.958333333333332</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.766666666666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.574999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.383333333333333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.191666666666666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист4!$G$11:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>41.298812536588628</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.905301886478043</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.075622212308204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.809773514079104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.107755791790744</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59.969569045443123</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.395213275036255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.384688480570134</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65.93799466204473</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67.055131819460101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.736099952816204</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67.980899062113039</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67.789529147350635</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5CF6-45E1-93BE-A428541B955D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Парабола_куб</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист4!$E$11:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1083333333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9166666666666661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.725</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.533333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.341666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.958333333333332</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.766666666666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.574999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.383333333333333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.191666666666666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист4!$H$11:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>41.19823407350642</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.715772978513343</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.207556269763955</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.801241022952567</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.624484313773465</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59.804943217920936</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61.470274811089311</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62.748136168972849</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63.766184367265879</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64.652076481662704</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65.533469587857581</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66.538020761544857</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67.793387078418803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5CF6-45E1-93BE-A428541B955D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="378423048"/>
+        <c:axId val="378424032"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="378423048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="378424032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="378424032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="378423048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Функция</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> Штрафа</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист5!$C$4:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0928848579839043E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.818478385475104E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.407284833436179</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C5D-47CA-8D99-06D3B90BD56F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Обучающая</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист5!$D$4:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2160.7446672187234</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2400.5857434783447</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2404.1817763108079</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0C5D-47CA-8D99-06D3B90BD56F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="476036992"/>
+        <c:axId val="476037320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="476036992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476037320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="476037320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476036992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1633,6 +3423,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2150,6 +4060,1554 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2714,6 +6172,111 @@
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>154781</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3042,24 +6605,24 @@
       <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -3276,28 +6839,28 @@
         <f t="shared" si="2"/>
         <v>72.113470682604344</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="N5" s="4" t="s">
+      <c r="L5" s="15"/>
+      <c r="N5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -3486,10 +7049,10 @@
         <f t="shared" si="2"/>
         <v>57.700116329235229</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="4"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -3755,10 +7318,10 @@
       <c r="F19" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="4"/>
+      <c r="H19" s="15"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -4115,7 +7678,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4720,10 +8283,10 @@
       <c r="F20" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="4"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F21">
@@ -4910,10 +8473,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4928,49 +8491,49 @@
       <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4984,63 +8547,63 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <f xml:space="preserve"> A2/100</f>
         <v>11</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <f xml:space="preserve"> B2/100</f>
         <v>57.41</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <f xml:space="preserve"> $H$15*F2+$H$14</f>
         <v>50.021895617401498</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <f xml:space="preserve"> H2-G2</f>
         <v>-7.3881043825984989</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="9">
         <f>I2^2</f>
         <v>54.58408636817115</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="7">
         <f xml:space="preserve"> F2</f>
         <v>11</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="8">
         <f xml:space="preserve"> G2</f>
         <v>57.41</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="8">
         <f xml:space="preserve"> $M$14 + $M$15*L2 + $M$16*L2^2</f>
         <v>49.811600011153743</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="8">
         <f xml:space="preserve"> N2 - M2</f>
         <v>-7.5983999888462534</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="9">
         <f xml:space="preserve"> O2^2</f>
         <v>57.735682390498745</v>
       </c>
-      <c r="R2" s="8">
+      <c r="R2" s="7">
         <f xml:space="preserve"> L2</f>
         <v>11</v>
       </c>
-      <c r="S2" s="9">
+      <c r="S2" s="8">
         <f xml:space="preserve"> M2</f>
         <v>57.41</v>
       </c>
-      <c r="T2" s="9">
+      <c r="T2" s="8">
         <f xml:space="preserve"> $S$14+$S$15*R2+$S$16*R2^2+$S$17*R2^3</f>
         <v>46.030227009958253</v>
       </c>
-      <c r="U2" s="9">
+      <c r="U2" s="8">
         <f xml:space="preserve"> T2 - S2+S21</f>
         <v>-11.379772990041744</v>
       </c>
-      <c r="V2" s="10">
+      <c r="V2" s="9">
         <f>U2^2</f>
         <v>129.4992333048836</v>
       </c>
@@ -5055,63 +8618,63 @@
       <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="8">
-        <f t="shared" ref="F3:G17" si="0" xml:space="preserve"> A3/100</f>
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:G3" si="0" xml:space="preserve"> A3/100</f>
         <v>9.5</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <f t="shared" si="0"/>
         <v>40.6</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <f t="shared" ref="H3:H13" si="1" xml:space="preserve"> $H$15*F3+$H$14</f>
         <v>46.520485524900892</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <f t="shared" ref="I3:I13" si="2" xml:space="preserve"> H3-G3</f>
         <v>5.9204855249008901</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="9">
         <f t="shared" ref="J3:J13" si="3">I3^2</f>
         <v>35.052148850560968</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <f t="shared" ref="L3:L13" si="4" xml:space="preserve"> F3</f>
         <v>9.5</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <f t="shared" ref="M3:M13" si="5" xml:space="preserve"> G3</f>
         <v>40.6</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="8">
         <f t="shared" ref="N3:N13" si="6" xml:space="preserve"> $M$14 + $M$15*L3 + $M$16*L3^2</f>
         <v>46.482327432986537</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="8">
         <f t="shared" ref="O3:O13" si="7" xml:space="preserve"> N3 - M3</f>
         <v>5.8823274329865356</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="9">
         <f t="shared" ref="P3:P13" si="8" xml:space="preserve"> O3^2</f>
         <v>34.601776028865963</v>
       </c>
-      <c r="R3" s="8">
+      <c r="R3" s="7">
         <f t="shared" ref="R3:R13" si="9" xml:space="preserve"> L3</f>
         <v>9.5</v>
       </c>
-      <c r="S3" s="9">
+      <c r="S3" s="8">
         <f t="shared" ref="S3:S13" si="10" xml:space="preserve"> M3</f>
         <v>40.6</v>
       </c>
-      <c r="T3" s="9">
+      <c r="T3" s="8">
         <f t="shared" ref="T3:T13" si="11" xml:space="preserve"> $S$14+$S$15*R3+$S$16*R3^2+$S$17*R3^3</f>
         <v>42.992913094386282</v>
       </c>
-      <c r="U3" s="9">
+      <c r="U3" s="8">
         <f t="shared" ref="U3:U13" si="12" xml:space="preserve"> T3 - S3</f>
         <v>2.3929130943862802</v>
       </c>
-      <c r="V3" s="10">
+      <c r="V3" s="9">
         <f t="shared" ref="V3:V13" si="13">U3^2</f>
         <v>5.7260330772853223</v>
       </c>
@@ -5126,63 +8689,63 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="8">
-        <f xml:space="preserve"> A4/100</f>
+      <c r="F4" s="7">
+        <f t="shared" ref="F4:F13" si="14" xml:space="preserve"> A4/100</f>
         <v>25</v>
       </c>
-      <c r="G4" s="9">
-        <f xml:space="preserve"> B4/100</f>
+      <c r="G4" s="8">
+        <f t="shared" ref="G4:G13" si="15" xml:space="preserve"> B4/100</f>
         <v>122.49</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <f t="shared" si="1"/>
         <v>82.701723147407108</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <f t="shared" si="2"/>
         <v>-39.788276852592887</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <f t="shared" si="3"/>
         <v>1583.106974898579</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="8">
         <f t="shared" si="5"/>
         <v>122.49</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="8">
         <f t="shared" si="6"/>
         <v>82.401340469994508</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="8">
         <f t="shared" si="7"/>
         <v>-40.088659530005486</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="9">
         <f t="shared" si="8"/>
         <v>1607.1006229126997</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R4" s="7">
         <f t="shared" si="9"/>
         <v>25</v>
       </c>
-      <c r="S4" s="9">
+      <c r="S4" s="8">
         <f t="shared" si="10"/>
         <v>122.49</v>
       </c>
-      <c r="T4" s="9">
+      <c r="T4" s="8">
         <f t="shared" si="11"/>
         <v>89.365812176003516</v>
       </c>
-      <c r="U4" s="9">
+      <c r="U4" s="8">
         <f t="shared" si="12"/>
         <v>-33.124187823996479</v>
       </c>
-      <c r="V4" s="10">
+      <c r="V4" s="9">
         <f t="shared" si="13"/>
         <v>1097.2118189993967</v>
       </c>
@@ -5197,63 +8760,63 @@
       <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="8">
-        <f xml:space="preserve"> A5/100</f>
+      <c r="F5" s="7">
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
-      <c r="G5" s="9">
-        <f xml:space="preserve"> B5/100</f>
+      <c r="G5" s="8">
+        <f t="shared" si="15"/>
         <v>63.5</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <f t="shared" si="1"/>
         <v>68.696082777404712</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <f t="shared" si="2"/>
         <v>5.1960827774047118</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="9">
         <f t="shared" si="3"/>
         <v>26.999276229641865</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="8">
         <f t="shared" si="6"/>
         <v>68.098855264106746</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="8">
         <f t="shared" si="7"/>
         <v>4.5988552641067457</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="9">
         <f t="shared" si="8"/>
         <v>21.149469740202324</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="7">
         <f t="shared" si="9"/>
         <v>19</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S5" s="8">
         <f t="shared" si="10"/>
         <v>63.5</v>
       </c>
-      <c r="T5" s="9">
+      <c r="T5" s="8">
         <f t="shared" si="11"/>
         <v>70.487451162521907</v>
       </c>
-      <c r="U5" s="9">
+      <c r="U5" s="8">
         <f t="shared" si="12"/>
         <v>6.9874511625219071</v>
       </c>
-      <c r="V5" s="10">
+      <c r="V5" s="9">
         <f t="shared" si="13"/>
         <v>48.824473748628755</v>
       </c>
@@ -5268,63 +8831,63 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="8">
-        <f xml:space="preserve"> A6/100</f>
+      <c r="F6" s="7">
+        <f t="shared" si="14"/>
         <v>3.6</v>
       </c>
-      <c r="G6" s="9">
-        <f xml:space="preserve"> B6/100</f>
+      <c r="G6" s="8">
+        <f t="shared" si="15"/>
         <v>37.409999999999997</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <f t="shared" si="1"/>
         <v>32.74827249439852</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <f t="shared" si="2"/>
         <v>-4.6617275056014762</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <f t="shared" si="3"/>
         <v>21.73170333648136</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <f t="shared" si="4"/>
         <v>3.6</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="8">
         <f t="shared" si="5"/>
         <v>37.409999999999997</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="8">
         <f t="shared" si="6"/>
         <v>33.692311611613583</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="8">
         <f t="shared" si="7"/>
         <v>-3.7176883883864136</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="9">
         <f t="shared" si="8"/>
         <v>13.82120695314317</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="7">
         <f t="shared" si="9"/>
         <v>3.6</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="8">
         <f t="shared" si="10"/>
         <v>37.409999999999997</v>
       </c>
-      <c r="T6" s="9">
+      <c r="T6" s="8">
         <f t="shared" si="11"/>
         <v>40.227286662953745</v>
       </c>
-      <c r="U6" s="9">
+      <c r="U6" s="8">
         <f t="shared" si="12"/>
         <v>2.8172866629537481</v>
       </c>
-      <c r="V6" s="10">
+      <c r="V6" s="9">
         <f t="shared" si="13"/>
         <v>7.9371041412570653</v>
       </c>
@@ -5339,63 +8902,63 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="8">
-        <f xml:space="preserve"> A7/100</f>
+      <c r="F7" s="7">
+        <f t="shared" si="14"/>
         <v>5.3</v>
       </c>
-      <c r="G7" s="9">
-        <f xml:space="preserve"> B7/100</f>
+      <c r="G7" s="8">
+        <f t="shared" si="15"/>
         <v>41.3</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <f t="shared" si="1"/>
         <v>36.716537265899206</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <f t="shared" si="2"/>
         <v>-4.5834627341007916</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <f t="shared" si="3"/>
         <v>21.008130634890705</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <f t="shared" si="4"/>
         <v>5.3</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="8">
         <f t="shared" si="5"/>
         <v>41.3</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="8">
         <f t="shared" si="6"/>
         <v>37.327671687477697</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="8">
         <f t="shared" si="7"/>
         <v>-3.9723283125223006</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="9">
         <f t="shared" si="8"/>
         <v>15.779392222466267</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="7">
         <f t="shared" si="9"/>
         <v>5.3</v>
       </c>
-      <c r="S7" s="9">
+      <c r="S7" s="8">
         <f t="shared" si="10"/>
         <v>41.3</v>
       </c>
-      <c r="T7" s="9">
+      <c r="T7" s="8">
         <f t="shared" si="11"/>
         <v>39.25413990585615</v>
       </c>
-      <c r="U7" s="9">
+      <c r="U7" s="8">
         <f t="shared" si="12"/>
         <v>-2.0458600941438476</v>
       </c>
-      <c r="V7" s="10">
+      <c r="V7" s="9">
         <f t="shared" si="13"/>
         <v>4.1855435248102735</v>
       </c>
@@ -5410,63 +8973,63 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="8">
-        <f xml:space="preserve"> A8/100</f>
+      <c r="F8" s="7">
+        <f t="shared" si="14"/>
         <v>9.5</v>
       </c>
-      <c r="G8" s="9">
-        <f xml:space="preserve"> B8/100</f>
+      <c r="G8" s="8">
+        <f t="shared" si="15"/>
         <v>44.89</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <f t="shared" si="1"/>
         <v>46.520485524900892</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <f t="shared" si="2"/>
         <v>1.6304855249008909</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <f t="shared" si="3"/>
         <v>2.6584830469113339</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <f t="shared" si="4"/>
         <v>9.5</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="8">
         <f t="shared" si="5"/>
         <v>44.89</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="8">
         <f t="shared" si="6"/>
         <v>46.482327432986537</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="8">
         <f t="shared" si="7"/>
         <v>1.5923274329865365</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="9">
         <f t="shared" si="8"/>
         <v>2.5355066538414928</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="7">
         <f t="shared" si="9"/>
         <v>9.5</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8" s="8">
         <f t="shared" si="10"/>
         <v>44.89</v>
       </c>
-      <c r="T8" s="9">
+      <c r="T8" s="8">
         <f t="shared" si="11"/>
         <v>42.992913094386282</v>
       </c>
-      <c r="U8" s="9">
+      <c r="U8" s="8">
         <f t="shared" si="12"/>
         <v>-1.897086905613719</v>
       </c>
-      <c r="V8" s="10">
+      <c r="V8" s="9">
         <f t="shared" si="13"/>
         <v>3.5989387274510354</v>
       </c>
@@ -5481,63 +9044,63 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="8">
-        <f xml:space="preserve"> A9/100</f>
+      <c r="F9" s="7">
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="G9" s="9">
-        <f xml:space="preserve"> B9/100</f>
+      <c r="G9" s="8">
+        <f t="shared" si="15"/>
         <v>47.9</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <f t="shared" si="1"/>
         <v>59.358989197403098</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <f t="shared" si="2"/>
         <v>11.458989197403099</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <f t="shared" si="3"/>
         <v>131.30843342620091</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <f t="shared" si="5"/>
         <v>47.9</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="8">
         <f t="shared" si="6"/>
         <v>58.843409777406812</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="8">
         <f t="shared" si="7"/>
         <v>10.943409777406814</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="9">
         <f t="shared" si="8"/>
         <v>119.75821755624304</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="7">
         <f t="shared" si="9"/>
         <v>15</v>
       </c>
-      <c r="S9" s="9">
+      <c r="S9" s="8">
         <f t="shared" si="10"/>
         <v>47.9</v>
       </c>
-      <c r="T9" s="9">
+      <c r="T9" s="8">
         <f t="shared" si="11"/>
         <v>57.100990096314035</v>
       </c>
-      <c r="U9" s="9">
+      <c r="U9" s="8">
         <f t="shared" si="12"/>
         <v>9.2009900963140367</v>
       </c>
-      <c r="V9" s="10">
+      <c r="V9" s="9">
         <f t="shared" si="13"/>
         <v>84.658218752468983</v>
       </c>
@@ -5552,63 +9115,63 @@
       <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" s="8">
-        <f xml:space="preserve"> A10/100</f>
+      <c r="F10" s="7">
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
-      <c r="G10" s="9">
-        <f xml:space="preserve"> B10/100</f>
+      <c r="G10" s="8">
+        <f t="shared" si="15"/>
         <v>59.46</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <f t="shared" si="1"/>
         <v>57.024715802402696</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <f t="shared" si="2"/>
         <v>-2.435284197597305</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <f t="shared" si="3"/>
         <v>5.9306091230671498</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="8">
         <f t="shared" si="5"/>
         <v>59.46</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="8">
         <f t="shared" si="6"/>
         <v>56.564491487051654</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="8">
         <f t="shared" si="7"/>
         <v>-2.8955085129483464</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="9">
         <f t="shared" si="8"/>
         <v>8.3839695485563439</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R10" s="7">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S10" s="8">
         <f t="shared" si="10"/>
         <v>59.46</v>
       </c>
-      <c r="T10" s="9">
+      <c r="T10" s="8">
         <f t="shared" si="11"/>
         <v>54.017215776648712</v>
       </c>
-      <c r="U10" s="9">
+      <c r="U10" s="8">
         <f t="shared" si="12"/>
         <v>-5.4427842233512891</v>
       </c>
-      <c r="V10" s="10">
+      <c r="V10" s="9">
         <f t="shared" si="13"/>
         <v>29.623900101961695</v>
       </c>
@@ -5623,63 +9186,63 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="8">
-        <f xml:space="preserve"> A11/100</f>
+      <c r="F11" s="7">
+        <f t="shared" si="14"/>
         <v>27</v>
       </c>
-      <c r="G11" s="9">
-        <f xml:space="preserve"> B11/100</f>
+      <c r="G11" s="8">
+        <f t="shared" si="15"/>
         <v>67.790000000000006</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <f t="shared" si="1"/>
         <v>87.370269937407912</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <f t="shared" si="2"/>
         <v>19.580269937407905</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <f t="shared" si="3"/>
         <v>383.3869708217598</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="8">
         <f t="shared" si="5"/>
         <v>67.790000000000006</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="8">
         <f t="shared" si="6"/>
         <v>87.280653398847178</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="8">
         <f t="shared" si="7"/>
         <v>19.490653398847172</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="9">
         <f t="shared" si="8"/>
         <v>379.88556991399281</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="7">
         <f t="shared" si="9"/>
         <v>27</v>
       </c>
-      <c r="S11" s="9">
+      <c r="S11" s="8">
         <f t="shared" si="10"/>
         <v>67.790000000000006</v>
       </c>
-      <c r="T11" s="9">
+      <c r="T11" s="8">
         <f t="shared" si="11"/>
         <v>94.071212518054352</v>
       </c>
-      <c r="U11" s="9">
+      <c r="U11" s="8">
         <f t="shared" si="12"/>
         <v>26.281212518054346</v>
       </c>
-      <c r="V11" s="10">
+      <c r="V11" s="9">
         <f t="shared" si="13"/>
         <v>690.70213141913644</v>
       </c>
@@ -5694,63 +9257,63 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" s="8">
-        <f xml:space="preserve"> A12/100</f>
+      <c r="F12" s="7">
+        <f t="shared" si="14"/>
         <v>34</v>
       </c>
-      <c r="G12" s="9">
-        <f xml:space="preserve"> B12/100</f>
+      <c r="G12" s="8">
+        <f t="shared" si="15"/>
         <v>99.7</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <f t="shared" si="1"/>
         <v>103.71018370241072</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <f t="shared" si="2"/>
         <v>4.0101837024107141</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <f t="shared" si="3"/>
         <v>16.081573327080502</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="8">
         <f t="shared" si="5"/>
         <v>99.7</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="8">
         <f t="shared" si="6"/>
         <v>104.79853147446131</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="8">
         <f t="shared" si="7"/>
         <v>5.0985314744613106</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12" s="9">
         <f t="shared" si="8"/>
         <v>25.995023196072626</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="7">
         <f t="shared" si="9"/>
         <v>34</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="8">
         <f t="shared" si="10"/>
         <v>99.7</v>
       </c>
-      <c r="T12" s="9">
+      <c r="T12" s="8">
         <f t="shared" si="11"/>
         <v>98.053606396553619</v>
       </c>
-      <c r="U12" s="9">
+      <c r="U12" s="8">
         <f t="shared" si="12"/>
         <v>-1.6463936034463842</v>
       </c>
-      <c r="V12" s="10">
+      <c r="V12" s="9">
         <f t="shared" si="13"/>
         <v>2.7106118974691698</v>
       </c>
@@ -5765,165 +9328,2139 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" s="8">
-        <f xml:space="preserve"> A13/100</f>
+      <c r="F13" s="7">
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
-      <c r="G13" s="9">
-        <f xml:space="preserve"> B13/100</f>
+      <c r="G13" s="8">
+        <f t="shared" si="15"/>
         <v>43.63</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <f t="shared" si="1"/>
         <v>54.690442407402294</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <f t="shared" si="2"/>
         <v>11.060442407402292</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <f t="shared" si="3"/>
         <v>122.333386247463</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="8">
         <f t="shared" si="5"/>
         <v>43.63</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="8">
         <f t="shared" si="6"/>
         <v>54.299550429224418</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="8">
         <f t="shared" si="7"/>
         <v>10.669550429224415</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13" s="9">
         <f t="shared" si="8"/>
         <v>113.83930636176291</v>
       </c>
-      <c r="R13" s="8">
+      <c r="R13" s="7">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="S13" s="9">
+      <c r="S13" s="8">
         <f t="shared" si="10"/>
         <v>43.63</v>
       </c>
-      <c r="T13" s="9">
+      <c r="T13" s="8">
         <f t="shared" si="11"/>
         <v>51.117767325710261</v>
       </c>
-      <c r="U13" s="9">
+      <c r="U13" s="8">
         <f t="shared" si="12"/>
         <v>7.4877673257102586</v>
       </c>
-      <c r="V13" s="10">
+      <c r="V13" s="9">
         <f t="shared" si="13"/>
         <v>56.06665952397416</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F14" s="8"/>
-      <c r="G14" s="9" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>24.344888272397078</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10">
+      <c r="I14" s="8"/>
+      <c r="J14" s="9">
         <f xml:space="preserve"> SUM(J2:J13)</f>
         <v>2404.1817763108079</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="8">
         <v>26.127244837511896</v>
       </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="10">
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="9">
         <f xml:space="preserve"> SUM(P2:P13)</f>
         <v>2400.5857434783447</v>
       </c>
-      <c r="R14" s="8" t="s">
+      <c r="R14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="S14" s="9">
+      <c r="S14" s="8">
         <v>48.214200486325325</v>
       </c>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="10">
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="9">
         <f xml:space="preserve"> SUM(V2:V13)</f>
         <v>2160.7446672187234</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E15" s="2"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12" t="s">
+      <c r="F15" s="10"/>
+      <c r="G15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="11">
         <v>2.3342733950004013</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="13"/>
-      <c r="L15" s="8" t="s">
+      <c r="I15" s="11"/>
+      <c r="J15" s="12"/>
+      <c r="L15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="8">
         <v>2.0762484187001964</v>
       </c>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="10"/>
-      <c r="R15" s="8" t="s">
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="9"/>
+      <c r="R15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="S15" s="9">
+      <c r="S15" s="8">
         <v>-3.4626366613466608</v>
       </c>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="10"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="9"/>
     </row>
     <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="11">
         <v>6.9886162639643127E-3</v>
       </c>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="13"/>
-      <c r="R16" s="8" t="s">
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="12"/>
+      <c r="R16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="S16" s="9">
+      <c r="S16" s="8">
         <v>0.36932614926606844</v>
       </c>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="10"/>
-    </row>
-    <row r="17" spans="18:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R17" s="11" t="s">
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="9"/>
+    </row>
+    <row r="17" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R17" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="S17" s="12">
+      <c r="S17" s="11">
         <v>-6.5991241643486758E-3</v>
       </c>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="13"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="12"/>
+    </row>
+    <row r="18" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="F18" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D19" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="16">
+        <f xml:space="preserve"> (MAX(F2:F13) - F19)/ 12</f>
+        <v>2.5333333333333332</v>
+      </c>
+      <c r="F19" s="16">
+        <f xml:space="preserve"> MIN(F2:F13)</f>
+        <v>3.6</v>
+      </c>
+      <c r="G19" s="16">
+        <f xml:space="preserve"> $H$15*F19 + $H$14</f>
+        <v>32.74827249439852</v>
+      </c>
+      <c r="H19" s="16">
+        <f xml:space="preserve"> $M$16 * F19^2 + $M$15*F19 + $M$14</f>
+        <v>33.692311611613583</v>
+      </c>
+      <c r="I19" s="16">
+        <f xml:space="preserve"> $S$17 * F19^3 + $S$16 *F19^2 + $S$15 * F19 + $S$14</f>
+        <v>40.227286662953745</v>
+      </c>
+    </row>
+    <row r="20" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="F20" s="16">
+        <f xml:space="preserve"> F19 + $E$19</f>
+        <v>6.1333333333333329</v>
+      </c>
+      <c r="G20" s="16">
+        <f t="shared" ref="G20:G31" si="16" xml:space="preserve"> $H$15*F20 + $H$14</f>
+        <v>38.661765095066201</v>
+      </c>
+      <c r="H20" s="16">
+        <f t="shared" ref="H20:H31" si="17" xml:space="preserve"> $M$16 * F20^2 + $M$15*F20 + $M$14</f>
+        <v>39.124464685798408</v>
+      </c>
+      <c r="I20" s="16">
+        <f t="shared" ref="I20:I31" si="18" xml:space="preserve"> $S$17 * F20^3 + $S$16 *F20^2 + $S$15 * F20 + $S$14</f>
+        <v>39.347359071112237</v>
+      </c>
+    </row>
+    <row r="21" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="F21" s="16">
+        <f t="shared" ref="F21:F32" si="19" xml:space="preserve"> F20 + $E$19</f>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="G21" s="16">
+        <f t="shared" si="16"/>
+        <v>44.575257695733889</v>
+      </c>
+      <c r="H21" s="16">
+        <f t="shared" si="17"/>
+        <v>44.646320532295803</v>
+      </c>
+      <c r="I21" s="16">
+        <f t="shared" si="18"/>
+        <v>41.649394769431836</v>
+      </c>
+    </row>
+    <row r="22" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="F22" s="16">
+        <f t="shared" si="19"/>
+        <v>11.2</v>
+      </c>
+      <c r="G22" s="16">
+        <f t="shared" si="16"/>
+        <v>50.488750296401577</v>
+      </c>
+      <c r="H22" s="16">
+        <f t="shared" si="17"/>
+        <v>50.257879151105776</v>
+      </c>
+      <c r="I22" s="16">
+        <f t="shared" si="18"/>
+        <v>46.489647729208286</v>
+      </c>
+    </row>
+    <row r="23" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="F23" s="16">
+        <f t="shared" si="19"/>
+        <v>13.733333333333333</v>
+      </c>
+      <c r="G23" s="16">
+        <f t="shared" si="16"/>
+        <v>56.402242897069257</v>
+      </c>
+      <c r="H23" s="16">
+        <f t="shared" si="17"/>
+        <v>55.959140542228326</v>
+      </c>
+      <c r="I23" s="16">
+        <f t="shared" si="18"/>
+        <v>53.224371921737351</v>
+      </c>
+    </row>
+    <row r="24" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="F24" s="16">
+        <f t="shared" si="19"/>
+        <v>16.266666666666666</v>
+      </c>
+      <c r="G24" s="16">
+        <f t="shared" si="16"/>
+        <v>62.315735497736938</v>
+      </c>
+      <c r="H24" s="16">
+        <f t="shared" si="17"/>
+        <v>61.750104705663439</v>
+      </c>
+      <c r="I24" s="16">
+        <f t="shared" si="18"/>
+        <v>61.209821318314781</v>
+      </c>
+    </row>
+    <row r="25" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="F25" s="16">
+        <f t="shared" si="19"/>
+        <v>18.799999999999997</v>
+      </c>
+      <c r="G25" s="16">
+        <f t="shared" si="16"/>
+        <v>68.229228098404619</v>
+      </c>
+      <c r="H25" s="16">
+        <f t="shared" si="17"/>
+        <v>67.63077164141113</v>
+      </c>
+      <c r="I25" s="16">
+        <f t="shared" si="18"/>
+        <v>69.802249890236283</v>
+      </c>
+    </row>
+    <row r="26" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="F26" s="16">
+        <f t="shared" si="19"/>
+        <v>21.333333333333329</v>
+      </c>
+      <c r="G26" s="16">
+        <f t="shared" si="16"/>
+        <v>74.142720699072299</v>
+      </c>
+      <c r="H26" s="16">
+        <f t="shared" si="17"/>
+        <v>73.601141349471391</v>
+      </c>
+      <c r="I26" s="16">
+        <f t="shared" si="18"/>
+        <v>78.357911608797636</v>
+      </c>
+    </row>
+    <row r="27" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="F27" s="16">
+        <f t="shared" si="19"/>
+        <v>23.86666666666666</v>
+      </c>
+      <c r="G27" s="16">
+        <f t="shared" si="16"/>
+        <v>80.056213299739966</v>
+      </c>
+      <c r="H27" s="16">
+        <f t="shared" si="17"/>
+        <v>79.661213829844215</v>
+      </c>
+      <c r="I27" s="16">
+        <f t="shared" si="18"/>
+        <v>86.233060445294626</v>
+      </c>
+    </row>
+    <row r="28" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="F28" s="16">
+        <f t="shared" si="19"/>
+        <v>26.399999999999991</v>
+      </c>
+      <c r="G28" s="16">
+        <f t="shared" si="16"/>
+        <v>85.969705900407661</v>
+      </c>
+      <c r="H28" s="16">
+        <f t="shared" si="17"/>
+        <v>85.81098908252963</v>
+      </c>
+      <c r="I28" s="16">
+        <f t="shared" si="18"/>
+        <v>92.783950371022982</v>
+      </c>
+    </row>
+    <row r="29" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="F29" s="16">
+        <f xml:space="preserve"> F28 + $E$19</f>
+        <v>28.933333333333323</v>
+      </c>
+      <c r="G29" s="16">
+        <f t="shared" si="16"/>
+        <v>91.883198501075327</v>
+      </c>
+      <c r="H29" s="16">
+        <f t="shared" si="17"/>
+        <v>92.050467107527609</v>
+      </c>
+      <c r="I29" s="16">
+        <f t="shared" si="18"/>
+        <v>97.366835357278404</v>
+      </c>
+    </row>
+    <row r="30" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="F30" s="16">
+        <f t="shared" si="19"/>
+        <v>31.466666666666654</v>
+      </c>
+      <c r="G30" s="16">
+        <f t="shared" si="16"/>
+        <v>97.796691101743022</v>
+      </c>
+      <c r="H30" s="16">
+        <f t="shared" si="17"/>
+        <v>98.379647904838166</v>
+      </c>
+      <c r="I30" s="16">
+        <f t="shared" si="18"/>
+        <v>99.337969375356735</v>
+      </c>
+    </row>
+    <row r="31" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="F31" s="16">
+        <f t="shared" si="19"/>
+        <v>33.999999999999986</v>
+      </c>
+      <c r="G31" s="16">
+        <f t="shared" si="16"/>
+        <v>103.71018370241069</v>
+      </c>
+      <c r="H31" s="16">
+        <f t="shared" si="17"/>
+        <v>104.79853147446129</v>
+      </c>
+      <c r="I31" s="16">
+        <f t="shared" si="18"/>
+        <v>98.053606396553704</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:O23"/>
+  <sheetViews>
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="16">
+        <v>5.3</v>
+      </c>
+      <c r="C2" s="16">
+        <v>41.3</v>
+      </c>
+      <c r="E2" s="22">
+        <f xml:space="preserve"> B2 *$F$6 + $F$5</f>
+        <v>44.272287393326735</v>
+      </c>
+      <c r="F2" s="16">
+        <f xml:space="preserve"> E2 - C2</f>
+        <v>2.972287393326738</v>
+      </c>
+      <c r="G2" s="23">
+        <f xml:space="preserve"> F2 ^2</f>
+        <v>8.8344923485290554</v>
+      </c>
+      <c r="I2" s="22">
+        <f xml:space="preserve"> $J$7 * B2 ^2 + $J$6 * B2 + $J$5</f>
+        <v>41.298812536588628</v>
+      </c>
+      <c r="J2" s="16">
+        <f xml:space="preserve"> I2 - C2</f>
+        <v>-1.1874634113695492E-3</v>
+      </c>
+      <c r="K2" s="23">
+        <f xml:space="preserve"> J2 ^ 2</f>
+        <v>1.4100693533414074E-6</v>
+      </c>
+      <c r="M2" s="16">
+        <f xml:space="preserve"> $N$8 * B2^3 + $N$7 * B2 ^2 + $N$6 * B2 + $N$5</f>
+        <v>41.19823407350642</v>
+      </c>
+      <c r="N2" s="16">
+        <f xml:space="preserve"> M2 - C2</f>
+        <v>-0.1017659264935773</v>
+      </c>
+      <c r="O2" s="16">
+        <f xml:space="preserve"> N2 ^ 2</f>
+        <v>1.0356303795096177E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="16">
+        <v>14</v>
+      </c>
+      <c r="C3" s="16">
+        <v>59.46</v>
+      </c>
+      <c r="E3" s="22">
+        <f t="shared" ref="E3:E4" si="0" xml:space="preserve"> B3 *$F$6 + $F$5</f>
+        <v>54.498544234079787</v>
+      </c>
+      <c r="F3" s="16">
+        <f t="shared" ref="F3:F4" si="1" xml:space="preserve"> E3 - C3</f>
+        <v>-4.9614557659202134</v>
+      </c>
+      <c r="G3" s="23">
+        <f t="shared" ref="G3:G4" si="2" xml:space="preserve"> F3 ^2</f>
+        <v>24.616043317182932</v>
+      </c>
+      <c r="I3" s="22">
+        <f t="shared" ref="I3:I4" si="3" xml:space="preserve"> $J$7 * B3 ^2 + $J$6 * B3 + $J$5</f>
+        <v>59.462277434261338</v>
+      </c>
+      <c r="J3" s="16">
+        <f t="shared" ref="J3:J4" si="4" xml:space="preserve"> I3 - C3</f>
+        <v>2.2774342613374188E-3</v>
+      </c>
+      <c r="K3" s="23">
+        <f t="shared" ref="K3:K4" si="5" xml:space="preserve"> J3 ^ 2</f>
+        <v>5.1867068147135145E-6</v>
+      </c>
+      <c r="M3" s="16">
+        <f t="shared" ref="M3:M4" si="6" xml:space="preserve"> $N$8 * B3^3 + $N$7 * B3 ^2 + $N$6 * B3 + $N$5</f>
+        <v>59.436313031335189</v>
+      </c>
+      <c r="N3" s="16">
+        <f t="shared" ref="N3:N4" si="7" xml:space="preserve"> M3 - C3</f>
+        <v>-2.3686968664812014E-2</v>
+      </c>
+      <c r="O3" s="16">
+        <f t="shared" ref="O3:O4" si="8" xml:space="preserve"> N3 ^ 2</f>
+        <v>5.6107248452778619E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="16">
+        <v>27</v>
+      </c>
+      <c r="C4" s="16">
+        <v>67.790000000000006</v>
+      </c>
+      <c r="E4" s="22">
+        <f t="shared" si="0"/>
+        <v>69.77915790417056</v>
+      </c>
+      <c r="F4" s="16">
+        <f t="shared" si="1"/>
+        <v>1.989157904170554</v>
+      </c>
+      <c r="G4" s="23">
+        <f t="shared" si="2"/>
+        <v>3.9567491677241913</v>
+      </c>
+      <c r="I4" s="22">
+        <f t="shared" si="3"/>
+        <v>67.789529147350635</v>
+      </c>
+      <c r="J4" s="16">
+        <f t="shared" si="4"/>
+        <v>-4.708526493715226E-4</v>
+      </c>
+      <c r="K4" s="23">
+        <f t="shared" si="5"/>
+        <v>2.21702217420182E-7</v>
+      </c>
+      <c r="M4" s="16">
+        <f t="shared" si="6"/>
+        <v>67.793387078418803</v>
+      </c>
+      <c r="N4" s="16">
+        <f t="shared" si="7"/>
+        <v>3.3870784187968184E-3</v>
+      </c>
+      <c r="O4" s="16">
+        <f t="shared" si="8"/>
+        <v>1.1472300215079155E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E5" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="25">
+        <v>38.042498743212803</v>
+      </c>
+      <c r="G5" s="9">
+        <f xml:space="preserve"> SUM(G2:G4)</f>
+        <v>37.407284833436179</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="8">
+        <v>25.285233980893938</v>
+      </c>
+      <c r="K5" s="9">
+        <f xml:space="preserve"> SUM(K2:K4)</f>
+        <v>6.818478385475104E-6</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5">
+        <v>17.909535832439811</v>
+      </c>
+      <c r="O5">
+        <f xml:space="preserve"> SUM(O2:O4)</f>
+        <v>1.0928848579839043E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="27">
+        <v>1.1754318207762131</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="I6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="8">
+        <v>3.3748927197556617</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="M6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6">
+        <v>5.53093123179793</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="11">
+        <v>-6.6691095016387078E-2</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="M7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7">
+        <v>-0.23356685854279047</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M8" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8">
+        <v>3.5979753017898247E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D10" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="31">
+        <f>( 27 - 5.3)/12</f>
+        <v>1.8083333333333333</v>
+      </c>
+      <c r="E11" s="22">
+        <v>5.3</v>
+      </c>
+      <c r="F11" s="16">
+        <f xml:space="preserve"> E11 * $F$6 + $F$5</f>
+        <v>44.272287393326735</v>
+      </c>
+      <c r="G11" s="16">
+        <f xml:space="preserve"> $J$7 * E11^2 + $J$6 * E11 + $J$5</f>
+        <v>41.298812536588628</v>
+      </c>
+      <c r="H11" s="23">
+        <f xml:space="preserve"> $N$8 * E11^3 + $N$7*E11^2 + $N$6*E11 + $N$5</f>
+        <v>41.19823407350642</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E12" s="22">
+        <f xml:space="preserve"> E11 + $D$11</f>
+        <v>7.1083333333333334</v>
+      </c>
+      <c r="F12" s="16">
+        <f t="shared" ref="F12:F23" si="9" xml:space="preserve"> E12 * $F$6 + $F$5</f>
+        <v>46.397859935897053</v>
+      </c>
+      <c r="G12" s="16">
+        <f t="shared" ref="G12:G23" si="10" xml:space="preserve"> $J$7 * E12^2 + $J$6 * E12 + $J$5</f>
+        <v>45.905301886478043</v>
+      </c>
+      <c r="H12" s="23">
+        <f t="shared" ref="H12:H23" si="11" xml:space="preserve"> $N$8 * E12^3 + $N$7*E12^2 + $N$6*E12 + $N$5</f>
+        <v>46.715772978513343</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E13" s="22">
+        <f xml:space="preserve"> E12 + $D$11</f>
+        <v>8.9166666666666661</v>
+      </c>
+      <c r="F13" s="16">
+        <f t="shared" si="9"/>
+        <v>48.52343247846737</v>
+      </c>
+      <c r="G13" s="16">
+        <f t="shared" si="10"/>
+        <v>50.075622212308204</v>
+      </c>
+      <c r="H13" s="23">
+        <f t="shared" si="11"/>
+        <v>51.207556269763955</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E14" s="22">
+        <f xml:space="preserve"> E13 + $D$11</f>
+        <v>10.725</v>
+      </c>
+      <c r="F14" s="16">
+        <f t="shared" si="9"/>
+        <v>50.649005021037688</v>
+      </c>
+      <c r="G14" s="16">
+        <f t="shared" si="10"/>
+        <v>53.809773514079104</v>
+      </c>
+      <c r="H14" s="23">
+        <f t="shared" si="11"/>
+        <v>54.801241022952567</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E15" s="22">
+        <f t="shared" ref="E15:E20" si="12" xml:space="preserve"> E14 + $D$11</f>
+        <v>12.533333333333333</v>
+      </c>
+      <c r="F15" s="16">
+        <f t="shared" si="9"/>
+        <v>52.774577563608005</v>
+      </c>
+      <c r="G15" s="16">
+        <f t="shared" si="10"/>
+        <v>57.107755791790744</v>
+      </c>
+      <c r="H15" s="23">
+        <f t="shared" si="11"/>
+        <v>57.624484313773465</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E16" s="22">
+        <f t="shared" si="12"/>
+        <v>14.341666666666667</v>
+      </c>
+      <c r="F16" s="16">
+        <f t="shared" si="9"/>
+        <v>54.90015010617833</v>
+      </c>
+      <c r="G16" s="16">
+        <f t="shared" si="10"/>
+        <v>59.969569045443123</v>
+      </c>
+      <c r="H16" s="23">
+        <f t="shared" si="11"/>
+        <v>59.804943217920936</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E17" s="22">
+        <f t="shared" si="12"/>
+        <v>16.149999999999999</v>
+      </c>
+      <c r="F17" s="16">
+        <f t="shared" si="9"/>
+        <v>57.025722648748641</v>
+      </c>
+      <c r="G17" s="16">
+        <f t="shared" si="10"/>
+        <v>62.395213275036255</v>
+      </c>
+      <c r="H17" s="23">
+        <f t="shared" si="11"/>
+        <v>61.470274811089311</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E18" s="22">
+        <f t="shared" si="12"/>
+        <v>17.958333333333332</v>
+      </c>
+      <c r="F18" s="16">
+        <f t="shared" si="9"/>
+        <v>59.151295191318965</v>
+      </c>
+      <c r="G18" s="16">
+        <f t="shared" si="10"/>
+        <v>64.384688480570134</v>
+      </c>
+      <c r="H18" s="23">
+        <f t="shared" si="11"/>
+        <v>62.748136168972849</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E19" s="22">
+        <f t="shared" si="12"/>
+        <v>19.766666666666666</v>
+      </c>
+      <c r="F19" s="16">
+        <f t="shared" si="9"/>
+        <v>61.276867733889283</v>
+      </c>
+      <c r="G19" s="16">
+        <f t="shared" si="10"/>
+        <v>65.93799466204473</v>
+      </c>
+      <c r="H19" s="23">
+        <f t="shared" si="11"/>
+        <v>63.766184367265879</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E20" s="22">
+        <f t="shared" si="12"/>
+        <v>21.574999999999999</v>
+      </c>
+      <c r="F20" s="16">
+        <f t="shared" si="9"/>
+        <v>63.4024402764596</v>
+      </c>
+      <c r="G20" s="16">
+        <f t="shared" si="10"/>
+        <v>67.055131819460101</v>
+      </c>
+      <c r="H20" s="23">
+        <f t="shared" si="11"/>
+        <v>64.652076481662704</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E21" s="22">
+        <f xml:space="preserve"> E20 + $D$11</f>
+        <v>23.383333333333333</v>
+      </c>
+      <c r="F21" s="16">
+        <f t="shared" si="9"/>
+        <v>65.528012819029925</v>
+      </c>
+      <c r="G21" s="16">
+        <f t="shared" si="10"/>
+        <v>67.736099952816204</v>
+      </c>
+      <c r="H21" s="23">
+        <f t="shared" si="11"/>
+        <v>65.533469587857581</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E22" s="22">
+        <f xml:space="preserve"> E21 + $D$11</f>
+        <v>25.191666666666666</v>
+      </c>
+      <c r="F22" s="16">
+        <f t="shared" si="9"/>
+        <v>67.653585361600236</v>
+      </c>
+      <c r="G22" s="16">
+        <f t="shared" si="10"/>
+        <v>67.980899062113039</v>
+      </c>
+      <c r="H22" s="23">
+        <f t="shared" si="11"/>
+        <v>66.538020761544857</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="26">
+        <f t="shared" ref="E23" si="13" xml:space="preserve"> E22 + $D$11</f>
+        <v>27</v>
+      </c>
+      <c r="F23" s="28">
+        <f t="shared" si="9"/>
+        <v>69.77915790417056</v>
+      </c>
+      <c r="G23" s="28">
+        <f t="shared" si="10"/>
+        <v>67.789529147350635</v>
+      </c>
+      <c r="H23" s="29">
+        <f t="shared" si="11"/>
+        <v>67.793387078418803</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="7">
+        <v>1.0928848579839043E-2</v>
+      </c>
+      <c r="D4" s="9">
+        <v>2160.7446672187234</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="7">
+        <v>6.818478385475104E-6</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2400.5857434783447</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="10">
+        <v>37.407284833436179</v>
+      </c>
+      <c r="D6" s="12">
+        <v>2404.1817763108079</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:X25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>57.41</v>
+      </c>
+      <c r="D3">
+        <f xml:space="preserve"> C3^2</f>
+        <v>3295.9080999999996</v>
+      </c>
+      <c r="E3">
+        <f xml:space="preserve"> $C$18 * B3 + $C$17</f>
+        <v>50.021895617401498</v>
+      </c>
+      <c r="F3">
+        <f xml:space="preserve"> C3 - E3</f>
+        <v>7.3881043825984989</v>
+      </c>
+      <c r="G3">
+        <f xml:space="preserve"> F3^2</f>
+        <v>54.58408636817115</v>
+      </c>
+      <c r="J3">
+        <v>11</v>
+      </c>
+      <c r="K3">
+        <v>57.41</v>
+      </c>
+      <c r="L3">
+        <f xml:space="preserve"> K3^2</f>
+        <v>3295.9080999999996</v>
+      </c>
+      <c r="M3">
+        <f xml:space="preserve"> $K$19*J3^2 + $K$18 * J3 + $K$17</f>
+        <v>49.811600011153736</v>
+      </c>
+      <c r="N3">
+        <f xml:space="preserve"> K3 - M3</f>
+        <v>7.5983999888462606</v>
+      </c>
+      <c r="O3">
+        <f xml:space="preserve"> N3^2</f>
+        <v>57.735682390498852</v>
+      </c>
+      <c r="S3">
+        <v>11</v>
+      </c>
+      <c r="T3">
+        <v>57.41</v>
+      </c>
+      <c r="U3">
+        <f xml:space="preserve"> T3^2</f>
+        <v>3295.9080999999996</v>
+      </c>
+      <c r="V3">
+        <f>$T$20 * S3^ 3+  $T$19*S3^2 + $T$18 * S3 + $T$17</f>
+        <v>46.030227009958253</v>
+      </c>
+      <c r="W3">
+        <f xml:space="preserve"> T3 - V3</f>
+        <v>11.379772990041744</v>
+      </c>
+      <c r="X3">
+        <f xml:space="preserve"> W3^2</f>
+        <v>129.4992333048836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>9.5</v>
+      </c>
+      <c r="C4">
+        <v>40.6</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D14" si="0" xml:space="preserve"> C4^2</f>
+        <v>1648.3600000000001</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E14" si="1" xml:space="preserve"> $C$18 * B4 + $C$17</f>
+        <v>46.520485524900892</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F14" si="2" xml:space="preserve"> C4 - E4</f>
+        <v>-5.9204855249008901</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G15" si="3" xml:space="preserve"> F4^2</f>
+        <v>35.052148850560968</v>
+      </c>
+      <c r="J4">
+        <v>9.5</v>
+      </c>
+      <c r="K4">
+        <v>40.6</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L14" si="4" xml:space="preserve"> K4^2</f>
+        <v>1648.3600000000001</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M14" si="5" xml:space="preserve"> $K$19*J4^2 + $K$18 * J4 + $K$17</f>
+        <v>46.482327432986537</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N14" si="6" xml:space="preserve"> K4 - M4</f>
+        <v>-5.8823274329865356</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O14" si="7" xml:space="preserve"> N4^2</f>
+        <v>34.601776028865963</v>
+      </c>
+      <c r="S4">
+        <v>9.5</v>
+      </c>
+      <c r="T4">
+        <v>40.6</v>
+      </c>
+      <c r="U4">
+        <f t="shared" ref="U4:U14" si="8" xml:space="preserve"> T4^2</f>
+        <v>1648.3600000000001</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V14" si="9">$T$20 * S4^ 3+  $T$19*S4^2 + $T$18 * S4 + $T$17</f>
+        <v>42.992913094386282</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W14" si="10" xml:space="preserve"> T4 - V4</f>
+        <v>-2.3929130943862802</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:X14" si="11" xml:space="preserve"> W4^2</f>
+        <v>5.7260330772853223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>122.49</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>15003.800099999999</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>82.701723147407108</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>39.788276852592887</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>1583.106974898579</v>
+      </c>
+      <c r="J5">
+        <v>25</v>
+      </c>
+      <c r="K5">
+        <v>122.49</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>15003.800099999999</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="5"/>
+        <v>82.401340469994494</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="6"/>
+        <v>40.088659530005501</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="7"/>
+        <v>1607.1006229127008</v>
+      </c>
+      <c r="S5">
+        <v>25</v>
+      </c>
+      <c r="T5">
+        <v>122.49</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="8"/>
+        <v>15003.800099999999</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="9"/>
+        <v>89.365812176003516</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="10"/>
+        <v>33.124187823996479</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="11"/>
+        <v>1097.2118189993967</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>63.5</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>4032.25</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>68.696082777404712</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>-5.1960827774047118</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>26.999276229641865</v>
+      </c>
+      <c r="J6">
+        <v>19</v>
+      </c>
+      <c r="K6">
+        <v>63.5</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>4032.25</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>68.098855264106746</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="6"/>
+        <v>-4.5988552641067457</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="7"/>
+        <v>21.149469740202324</v>
+      </c>
+      <c r="S6">
+        <v>19</v>
+      </c>
+      <c r="T6">
+        <v>63.5</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="8"/>
+        <v>4032.25</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="9"/>
+        <v>70.487451162521907</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="10"/>
+        <v>-6.9874511625219071</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="11"/>
+        <v>48.824473748628755</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3.6</v>
+      </c>
+      <c r="C7">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1399.5080999999998</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>32.74827249439852</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>4.6617275056014762</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>21.73170333648136</v>
+      </c>
+      <c r="J7">
+        <v>3.6</v>
+      </c>
+      <c r="K7">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>1399.5080999999998</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>33.692311611613583</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="6"/>
+        <v>3.7176883883864136</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="7"/>
+        <v>13.82120695314317</v>
+      </c>
+      <c r="S7">
+        <v>3.6</v>
+      </c>
+      <c r="T7">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="8"/>
+        <v>1399.5080999999998</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="9"/>
+        <v>40.227286662953745</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="10"/>
+        <v>-2.8172866629537481</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="11"/>
+        <v>7.9371041412570653</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5.3</v>
+      </c>
+      <c r="C8">
+        <v>41.3</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1705.6899999999998</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>36.716537265899206</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>4.5834627341007916</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>21.008130634890705</v>
+      </c>
+      <c r="J8">
+        <v>5.3</v>
+      </c>
+      <c r="K8">
+        <v>41.3</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>1705.6899999999998</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>37.327671687477697</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>3.9723283125223006</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="7"/>
+        <v>15.779392222466267</v>
+      </c>
+      <c r="S8">
+        <v>5.3</v>
+      </c>
+      <c r="T8">
+        <v>41.3</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="8"/>
+        <v>1705.6899999999998</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="9"/>
+        <v>39.25413990585615</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="10"/>
+        <v>2.0458600941438476</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="11"/>
+        <v>4.1855435248102735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>9.5</v>
+      </c>
+      <c r="C9">
+        <v>44.89</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>2015.1121000000001</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>46.520485524900892</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>-1.6304855249008909</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>2.6584830469113339</v>
+      </c>
+      <c r="J9">
+        <v>9.5</v>
+      </c>
+      <c r="K9">
+        <v>44.89</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>2015.1121000000001</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>46.482327432986537</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="6"/>
+        <v>-1.5923274329865365</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="7"/>
+        <v>2.5355066538414928</v>
+      </c>
+      <c r="S9">
+        <v>9.5</v>
+      </c>
+      <c r="T9">
+        <v>44.89</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="8"/>
+        <v>2015.1121000000001</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="9"/>
+        <v>42.992913094386282</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="10"/>
+        <v>1.897086905613719</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="11"/>
+        <v>3.5989387274510354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>47.9</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>2294.41</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>59.358989197403098</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>-11.458989197403099</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>131.30843342620091</v>
+      </c>
+      <c r="J10">
+        <v>15</v>
+      </c>
+      <c r="K10">
+        <v>47.9</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>2294.41</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>58.843409777406812</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="6"/>
+        <v>-10.943409777406814</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="7"/>
+        <v>119.75821755624304</v>
+      </c>
+      <c r="S10">
+        <v>15</v>
+      </c>
+      <c r="T10">
+        <v>47.9</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="8"/>
+        <v>2294.41</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="9"/>
+        <v>57.100990096314035</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="10"/>
+        <v>-9.2009900963140367</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="11"/>
+        <v>84.658218752468983</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>59.46</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>3535.4916000000003</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>57.024715802402696</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>2.435284197597305</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>5.9306091230671498</v>
+      </c>
+      <c r="J11">
+        <v>14</v>
+      </c>
+      <c r="K11">
+        <v>59.46</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>3535.4916000000003</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>56.564491487051654</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="6"/>
+        <v>2.8955085129483464</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="7"/>
+        <v>8.3839695485563439</v>
+      </c>
+      <c r="S11">
+        <v>14</v>
+      </c>
+      <c r="T11">
+        <v>59.46</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="8"/>
+        <v>3535.4916000000003</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="9"/>
+        <v>54.017215776648719</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="10"/>
+        <v>5.442784223351282</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="11"/>
+        <v>29.623900101961617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>67.790000000000006</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>4595.4841000000006</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>87.370269937407912</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>-19.580269937407905</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>383.3869708217598</v>
+      </c>
+      <c r="J12">
+        <v>27</v>
+      </c>
+      <c r="K12">
+        <v>67.790000000000006</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>4595.4841000000006</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>87.280653398847193</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="6"/>
+        <v>-19.490653398847186</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="7"/>
+        <v>379.88556991399338</v>
+      </c>
+      <c r="S12">
+        <v>27</v>
+      </c>
+      <c r="T12">
+        <v>67.790000000000006</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="8"/>
+        <v>4595.4841000000006</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="9"/>
+        <v>94.071212518054367</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="10"/>
+        <v>-26.28121251805436</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="11"/>
+        <v>690.70213141913723</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>99.7</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>9940.09</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>103.71018370241072</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>-4.0101837024107141</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>16.081573327080502</v>
+      </c>
+      <c r="J13">
+        <v>34</v>
+      </c>
+      <c r="K13">
+        <v>99.7</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>9940.09</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>104.79853147446131</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="6"/>
+        <v>-5.0985314744613106</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="7"/>
+        <v>25.995023196072626</v>
+      </c>
+      <c r="S13">
+        <v>34</v>
+      </c>
+      <c r="T13">
+        <v>99.7</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="8"/>
+        <v>9940.09</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="9"/>
+        <v>98.053606396553647</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="10"/>
+        <v>1.6463936034463558</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="11"/>
+        <v>2.710611897469076</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>43.63</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1903.5769000000003</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>54.690442407402294</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>-11.060442407402292</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>122.333386247463</v>
+      </c>
+      <c r="J14">
+        <v>13</v>
+      </c>
+      <c r="K14">
+        <v>43.63</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>1903.5769000000003</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>54.299550429224418</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="6"/>
+        <v>-10.669550429224415</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="7"/>
+        <v>113.83930636176291</v>
+      </c>
+      <c r="S14">
+        <v>13</v>
+      </c>
+      <c r="T14">
+        <v>43.63</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="8"/>
+        <v>1903.5769000000003</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="9"/>
+        <v>51.117767325710254</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="10"/>
+        <v>-7.4877673257102515</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="11"/>
+        <v>56.066659523974053</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15">
+        <f xml:space="preserve"> SUM(B3:B14)</f>
+        <v>185.89999999999998</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:G15" si="12" xml:space="preserve"> SUM(C3:C14)</f>
+        <v>726.07999999999993</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="12"/>
+        <v>51369.680999999997</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="12"/>
+        <v>726.08008339933963</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="12"/>
+        <v>-8.3399339544598661E-5</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="12"/>
+        <v>2404.1817763108079</v>
+      </c>
+      <c r="I15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15">
+        <f xml:space="preserve"> SUM(J3:J14)</f>
+        <v>185.89999999999998</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ref="K15:O15" si="13" xml:space="preserve"> SUM(K3:K14)</f>
+        <v>726.07999999999993</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="13"/>
+        <v>51369.680999999997</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="13"/>
+        <v>726.0830704773108</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="13"/>
+        <v>-3.070477310721742E-3</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="13"/>
+        <v>2400.585743478347</v>
+      </c>
+      <c r="R15" t="s">
+        <v>54</v>
+      </c>
+      <c r="S15">
+        <f xml:space="preserve"> SUM(S3:S14)</f>
+        <v>185.89999999999998</v>
+      </c>
+      <c r="T15">
+        <f t="shared" ref="T15" si="14" xml:space="preserve"> SUM(T3:T14)</f>
+        <v>726.07999999999993</v>
+      </c>
+      <c r="U15">
+        <f t="shared" ref="U15" si="15" xml:space="preserve"> SUM(U3:U14)</f>
+        <v>51369.680999999997</v>
+      </c>
+      <c r="V15">
+        <f t="shared" ref="V15" si="16" xml:space="preserve"> SUM(V3:V14)</f>
+        <v>725.71153521934707</v>
+      </c>
+      <c r="W15">
+        <f t="shared" ref="W15" si="17" xml:space="preserve"> SUM(W3:W14)</f>
+        <v>0.36846478065284316</v>
+      </c>
+      <c r="X15">
+        <f t="shared" ref="X15" si="18" xml:space="preserve"> SUM(X3:X14)</f>
+        <v>2160.7446672187239</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>24.344888272397078</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="8">
+        <v>26.127244837511896</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T17" s="8">
+        <v>48.214200486325325</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>2.3342733950004013</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="8">
+        <v>2.0762484187001964</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T18" s="8">
+        <v>-3.4626366613466608</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19">
+        <f>( D15 - (C15^2)/11)/10</f>
+        <v>344.31204181818248</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="11">
+        <v>6.9886162639643127E-3</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T19" s="8">
+        <v>0.36932614926606844</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20">
+        <f xml:space="preserve"> G15 / 9</f>
+        <v>267.13130847897867</v>
+      </c>
+      <c r="J20" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20">
+        <f>( L15 - (K15^2)/11)/10</f>
+        <v>344.31204181818248</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="T20" s="11">
+        <v>-6.5991241643486758E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21">
+        <f xml:space="preserve"> C19 / C20</f>
+        <v>1.2889243263122689</v>
+      </c>
+      <c r="J21" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21">
+        <f xml:space="preserve"> O15/ 9</f>
+        <v>266.7317492753719</v>
+      </c>
+      <c r="S21" t="s">
+        <v>56</v>
+      </c>
+      <c r="T21">
+        <f>( U15 - (T15^2)/11)/10</f>
+        <v>344.31204181818248</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22">
+        <f xml:space="preserve"> _xlfn.F.DIST(0.05,11,10,TRUE)</f>
+        <v>1.2044118025576918E-5</v>
+      </c>
+      <c r="J22" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22">
+        <f xml:space="preserve"> K20 / K21</f>
+        <v>1.2908551110003679</v>
+      </c>
+      <c r="S22" t="s">
+        <v>57</v>
+      </c>
+      <c r="T22">
+        <f xml:space="preserve"> X15/ 9</f>
+        <v>240.08274080208042</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+      <c r="J23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23">
+        <f xml:space="preserve"> _xlfn.F.DIST(0.05,11,10,TRUE)</f>
+        <v>1.2044118025576918E-5</v>
+      </c>
+      <c r="S23" t="s">
+        <v>58</v>
+      </c>
+      <c r="T23">
+        <f xml:space="preserve"> T21 / T22</f>
+        <v>1.4341390833338856</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24" t="s">
+        <v>61</v>
+      </c>
+      <c r="S24" t="s">
+        <v>59</v>
+      </c>
+      <c r="T24">
+        <f xml:space="preserve"> _xlfn.F.DIST(0.05,11,10,TRUE)</f>
+        <v>1.2044118025576918E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="S25" t="s">
+        <v>60</v>
+      </c>
+      <c r="T25" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
